--- a/Bloomberg_Key_ECO_Indicators.xlsx
+++ b/Bloomberg_Key_ECO_Indicators.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dealing\Panagiotis Papaioannou\pyerb\PyEurobankBloomberg\PySystems\PyLiveTradingSystems\GMAA Observatory\Aggregated Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dealing\Panagiotis Papaioannou\pyerb\PyEurobankBloomberg\PySystems\PyLiveTradingSystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB76158-CB4D-4929-998E-4733003E34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13575"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,29 @@
     <sheet name="AUS" sheetId="6" r:id="rId6"/>
     <sheet name="BRL" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">USA!$F$1:$F$147</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="796">
   <si>
     <t>GDP CQOQ Index</t>
   </si>
@@ -2373,12 +2386,57 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>EUORDEPO Index</t>
+  </si>
+  <si>
+    <t>FDTR Index</t>
+  </si>
+  <si>
+    <t>MPCVRTIN Index</t>
+  </si>
+  <si>
+    <t>MPCVRTMN Index</t>
+  </si>
+  <si>
+    <t>MPCVRTDC Index</t>
+  </si>
+  <si>
+    <t>BOJDPBAL Index</t>
+  </si>
+  <si>
+    <t>CABROVER Index</t>
+  </si>
+  <si>
+    <t>RBATCTR Index</t>
+  </si>
+  <si>
+    <t>BZSTSETA Index</t>
+  </si>
+  <si>
+    <t>FDTRFTRL Index</t>
+  </si>
+  <si>
+    <t>FDTRMID Index</t>
+  </si>
+  <si>
+    <t>GG_Selector</t>
+  </si>
+  <si>
+    <t>AssetsToTrade</t>
+  </si>
+  <si>
+    <t>ES1 Index,NQ1 Index,TY1 Comdty,TU1 Comdty,GC1 Comdty</t>
+  </si>
+  <si>
+    <t>ForwardLookers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2412,7 +2470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2432,12 +2490,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2460,13 +2572,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2480,10 +2601,61 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="blp_column_header" xfId="1"/>
+    <cellStyle name="blp_column_header" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2505,2083 +2677,2101 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1461473548</v>
+        <v>#N/A Requesting Data...4023583543</v>
         <stp/>
         <stp>BDP|13321150122863980940</stp>
         <tr r="B51" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2180038384</v>
+        <v>#N/A Requesting Data...3213582264</v>
         <stp/>
         <stp>BDP|14870466526498457040</stp>
         <tr r="B86" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...724866772</v>
+        <v>#N/A Requesting Data...4140551553</v>
         <stp/>
         <stp>BDP|14151913570728824834</stp>
         <tr r="B30" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2602992087</v>
+        <v>#N/A Requesting Data...3211086925</v>
         <stp/>
         <stp>BDP|13653185070957707861</stp>
         <tr r="B28" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1689210175</v>
+        <v>#N/A Requesting Data...3328633144</v>
         <stp/>
         <stp>BDP|18204473952667556423</stp>
         <tr r="B46" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3513841216</v>
+        <v>#N/A Requesting Data...3634985049</v>
         <stp/>
         <stp>BDP|10267156395602353015</stp>
         <tr r="B44" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1543871759</v>
+        <v>#N/A Requesting Data...3926479121</v>
         <stp/>
         <stp>BDP|16175038357919164044</stp>
         <tr r="B23" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1791758940</v>
+        <v>#N/A Requesting Data...4132969973</v>
         <stp/>
         <stp>BDP|11141697110135242983</stp>
         <tr r="B4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...585088257</v>
+        <v>#N/A Requesting Data...2981980993</v>
         <stp/>
         <stp>BDP|16392591631493724997</stp>
         <tr r="B44" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...557066517</v>
+        <v>#N/A Requesting Data...3390765127</v>
         <stp/>
         <stp>BDP|11387667291004025011</stp>
         <tr r="B135" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...466182355</v>
+        <v>#N/A Requesting Data...3452903442</v>
         <stp/>
         <stp>BDP|11265055583161544254</stp>
         <tr r="B32" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2695802033</v>
+        <v>#N/A Requesting Data...3424102871</v>
         <stp/>
         <stp>BDP|12663642182044198275</stp>
         <tr r="B5" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3700759217</v>
+        <v>#N/A Requesting Data...3045433334</v>
         <stp/>
         <stp>BDP|17574866051545063540</stp>
         <tr r="B15" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...439870766</v>
+        <v>#N/A Requesting Data...3784724808</v>
         <stp/>
         <stp>BDP|10041918670127152368</stp>
         <tr r="B94" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...776351062</v>
+        <v>#N/A Requesting Data...3191272554</v>
         <stp/>
         <stp>BDP|16689980818821008505</stp>
         <tr r="B11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1796416918</v>
+        <v>#N/A Requesting Data...2653470989</v>
         <stp/>
         <stp>BDP|15195716024933842879</stp>
         <tr r="B8" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...668355082</v>
+        <v>#N/A Requesting Data...3630742533</v>
         <stp/>
         <stp>BDP|12731194617160305918</stp>
         <tr r="B37" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2574890906</v>
+        <v>#N/A Requesting Data...2989535718</v>
         <stp/>
         <stp>BDP|13087338429478574145</stp>
         <tr r="B22" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3524406959</v>
+        <v>#N/A Requesting Data...3594861676</v>
         <stp/>
         <stp>BDP|16859599388770267011</stp>
         <tr r="B86" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3179034449</v>
+        <v>#N/A Requesting Data...4183022099</v>
         <stp/>
         <stp>BDP|14146599365334271833</stp>
         <tr r="B16" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3199434623</v>
+        <v>#N/A Requesting Data...2828860096</v>
         <stp/>
         <stp>BDP|16543466318111226965</stp>
         <tr r="B107" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2749905452</v>
+        <v>#N/A Requesting Data...3002405046</v>
         <stp/>
         <stp>BDP|14307576241736366865</stp>
         <tr r="B34" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1255692107</v>
+        <v>#N/A Requesting Data...2755028854</v>
         <stp/>
         <stp>BDP|16163305391274356309</stp>
         <tr r="B121" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2462613556</v>
+        <v>#N/A Requesting Data...3627876691</v>
         <stp/>
         <stp>BDP|15013968076819784954</stp>
         <tr r="B65" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3117468934</v>
+        <v>#N/A Requesting Data...3322322038</v>
         <stp/>
         <stp>BDP|14255248958829245190</stp>
         <tr r="B73" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2304484551</v>
+        <v>#N/A Requesting Data...4037658858</v>
         <stp/>
         <stp>BDP|16428123689521361589</stp>
         <tr r="B73" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940150027</v>
+        <v>#N/A Requesting Data...3622350091</v>
         <stp/>
         <stp>BDP|13100303642928248753</stp>
         <tr r="B28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2240419822</v>
+        <v>#N/A Requesting Data...3391513913</v>
         <stp/>
         <stp>BDP|10954985267507662342</stp>
         <tr r="B10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1959648413</v>
+        <v>#N/A Requesting Data...2957731590</v>
         <stp/>
         <stp>BDP|12667700091120695759</stp>
         <tr r="B61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...899299838</v>
+        <v>#N/A Requesting Data...4073918215</v>
         <stp/>
         <stp>BDP|15099995822852945758</stp>
         <tr r="B28" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1782795074</v>
+        <v>#N/A Requesting Data...2714114023</v>
         <stp/>
         <stp>BDP|16125856974940195268</stp>
         <tr r="B43" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...825713854</v>
+        <v>#N/A Requesting Data...3412214579</v>
         <stp/>
         <stp>BDP|17128766614693144954</stp>
         <tr r="B63" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2564828154</v>
+        <v>#N/A Requesting Data...4260241453</v>
         <stp/>
         <stp>BDP|17279967941133415261</stp>
         <tr r="B10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2933219477</v>
+        <v>#N/A Requesting Data...3111420640</v>
         <stp/>
         <stp>BDP|13407187822042199988</stp>
         <tr r="B100" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3354173556</v>
+        <v>#N/A Requesting Data...3796370410</v>
         <stp/>
         <stp>BDP|16298323053422664930</stp>
         <tr r="B8" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...616719437</v>
+        <v>#N/A Requesting Data...3432827620</v>
         <stp/>
         <stp>BDP|10303228579458016500</stp>
         <tr r="B66" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2723062714</v>
+        <v>#N/A Requesting Data...2735309279</v>
         <stp/>
         <stp>BDP|14464744469915113833</stp>
         <tr r="B27" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3305151935</v>
+        <v>#N/A Requesting Data...2800393882</v>
         <stp/>
         <stp>BDP|13698184635079576056</stp>
         <tr r="B80" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1863518780</v>
+        <v>#N/A Requesting Data...2991122571</v>
         <stp/>
         <stp>BDP|13330805067531873477</stp>
         <tr r="B64" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3491743958</v>
+        <v>#N/A Requesting Data...2936726349</v>
         <stp/>
         <stp>BDP|11071328629479391124</stp>
         <tr r="B55" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2488532454</v>
+        <v>#N/A Requesting Data...4256455040</v>
         <stp/>
         <stp>BDP|15177415991386971622</stp>
         <tr r="B10" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1090910565</v>
+        <v>#N/A Requesting Data...2917189746</v>
         <stp/>
         <stp>BDP|17103985160451631133</stp>
         <tr r="B62" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1561389459</v>
+        <v>#N/A Requesting Data...4154099946</v>
         <stp/>
         <stp>BDP|17178684600368556101</stp>
         <tr r="B52" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4161473275</v>
+        <v>#N/A Requesting Data...4093710231</v>
         <stp/>
         <stp>BDP|12243968637071967154</stp>
         <tr r="B45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...300785399</v>
+        <v>#N/A Requesting Data...3215837984</v>
         <stp/>
         <stp>BDP|14388695733838688112</stp>
         <tr r="B31" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3534227343</v>
+        <v>#N/A Requesting Data...3121904130</v>
         <stp/>
         <stp>BDP|13936538684194370238</stp>
         <tr r="B50" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2488999311</v>
+        <v>#N/A Requesting Data...3981959164</v>
         <stp/>
         <stp>BDP|12054773981915627009</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2167771931</v>
+        <v>#N/A Requesting Data...4075506817</v>
         <stp/>
         <stp>BDP|16640263080462590667</stp>
         <tr r="B64" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1185959310</v>
+        <v>#N/A Requesting Data...3250740740</v>
         <stp/>
         <stp>BDP|16298254111295000852</stp>
         <tr r="B57" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3353487832</v>
+        <v>#N/A Requesting Data...3181813158</v>
         <stp/>
         <stp>BDP|18126215087728701231</stp>
         <tr r="B74" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4132036936</v>
+        <v>#N/A Requesting Data...3122579671</v>
         <stp/>
         <stp>BDP|17062942214730416775</stp>
         <tr r="B47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3053115627</v>
+        <v>#N/A Requesting Data...2896945839</v>
         <stp/>
         <stp>BDP|18180403443577747778</stp>
         <tr r="B14" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3280000274</v>
+        <v>#N/A Requesting Data...3318322933</v>
         <stp/>
         <stp>BDP|14417245103137762917</stp>
         <tr r="B98" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3857789102</v>
+        <v>#N/A Requesting Data...3760938905</v>
         <stp/>
         <stp>BDP|11110835917268324805</stp>
         <tr r="B90" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2820123443</v>
+        <v>#N/A Requesting Data...2690570443</v>
         <stp/>
         <stp>BDP|12634821134586705710</stp>
         <tr r="B11" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1643716095</v>
+        <v>#N/A Requesting Data...3886495381</v>
+        <stp/>
+        <stp>BDP|15325460088635456507</stp>
+        <tr r="B73" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3505467078</v>
         <stp/>
         <stp>BDP|17575798442559134445</stp>
         <tr r="B46" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279637056</v>
+        <v>#N/A Requesting Data...3308060328</v>
         <stp/>
         <stp>BDP|16475595093477223463</stp>
         <tr r="B27" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1147643988</v>
+        <v>#N/A Requesting Data...3791990576</v>
         <stp/>
         <stp>BDP|16284879787896720983</stp>
         <tr r="B70" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2848212661</v>
+        <v>#N/A Requesting Data...2721791999</v>
+        <stp/>
+        <stp>BDP|17867721392697235769</stp>
+        <tr r="B137" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3558522860</v>
         <stp/>
         <stp>BDP|12553625818258656456</stp>
         <tr r="B110" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3067365786</v>
+        <v>#N/A Requesting Data...2882097509</v>
         <stp/>
         <stp>BDP|14478555169818294663</stp>
         <tr r="B114" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2961471364</v>
+        <v>#N/A Requesting Data...4093515246</v>
         <stp/>
         <stp>BDP|17686835292556921913</stp>
         <tr r="B44" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3521469800</v>
+        <v>#N/A Requesting Data...3809817795</v>
         <stp/>
         <stp>BDP|10516086692273470347</stp>
         <tr r="B67" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...308261956</v>
+        <v>#N/A Requesting Data...3444515624</v>
         <stp/>
         <stp>BDP|10198150477519923644</stp>
         <tr r="B77" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1199821515</v>
+        <v>#N/A Requesting Data...3057834599</v>
         <stp/>
         <stp>BDP|11000612212217198830</stp>
         <tr r="B16" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...696243239</v>
+        <v>#N/A Requesting Data...3386754740</v>
         <stp/>
         <stp>BDP|10621400956240967899</stp>
         <tr r="B45" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3089423412</v>
+        <v>#N/A Requesting Data...3507478350</v>
         <stp/>
         <stp>BDP|15304325420294922986</stp>
         <tr r="B49" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3938920120</v>
+        <v>#N/A Requesting Data...3761948828</v>
         <stp/>
         <stp>BDP|17193561028839999055</stp>
         <tr r="B81" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3402730712</v>
+        <v>#N/A Requesting Data...4165029739</v>
         <stp/>
         <stp>BDP|13361396784164574582</stp>
         <tr r="B37" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...436037658</v>
+        <v>#N/A Requesting Data...3373650675</v>
         <stp/>
         <stp>BDP|15498929804280051500</stp>
         <tr r="B97" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3347994053</v>
+        <v>#N/A Requesting Data...3044658824</v>
         <stp/>
         <stp>BDP|16465189322894025896</stp>
         <tr r="B69" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4097224820</v>
+        <v>#N/A Requesting Data...3290811343</v>
         <stp/>
         <stp>BDP|13072249914588786105</stp>
         <tr r="B111" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...502177031</v>
+        <v>#N/A Requesting Data...4150342805</v>
         <stp/>
         <stp>BDP|17779816569572154570</stp>
         <tr r="B19" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1915012430</v>
+        <v>#N/A Requesting Data...3099201490</v>
         <stp/>
         <stp>BDP|15307835436748558886</stp>
         <tr r="B95" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3257963527</v>
+        <v>#N/A Requesting Data...3409573556</v>
         <stp/>
         <stp>BDP|15767097784621222230</stp>
         <tr r="B9" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2005806913</v>
+        <v>#N/A Requesting Data...4017639662</v>
         <stp/>
         <stp>BDP|18160099942900614265</stp>
         <tr r="B113" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2533019064</v>
+        <v>#N/A Requesting Data...3358569957</v>
         <stp/>
         <stp>BDP|14032215219919705026</stp>
         <tr r="B32" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1544962259</v>
+        <v>#N/A Requesting Data...3195994120</v>
         <stp/>
         <stp>BDP|12107393460869402012</stp>
         <tr r="B19" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2800876954</v>
+        <v>#N/A Requesting Data...3082756444</v>
         <stp/>
         <stp>BDP|18353278978524888798</stp>
         <tr r="B96" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2565488999</v>
+        <v>#N/A Requesting Data...3273674534</v>
         <stp/>
         <stp>BDP|10361134361681925851</stp>
         <tr r="B48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2596538749</v>
+        <v>#N/A Requesting Data...3703009991</v>
         <stp/>
         <stp>BDP|17193129630769996268</stp>
         <tr r="B97" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2616620854</v>
+        <v>#N/A Requesting Data...3540486039</v>
         <stp/>
         <stp>BDP|10275899864735290529</stp>
         <tr r="B113" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3814267282</v>
+        <v>#N/A Requesting Data...3306718058</v>
         <stp/>
         <stp>BDP|13293819549206335762</stp>
         <tr r="B112" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758930568</v>
+        <v>#N/A Requesting Data...3140470035</v>
         <stp/>
         <stp>BDP|17682708881654488237</stp>
         <tr r="B103" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1798144142</v>
+        <v>#N/A Requesting Data...4205066389</v>
         <stp/>
         <stp>BDP|17049027199701937126</stp>
         <tr r="B71" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...459782661</v>
+        <v>#N/A Requesting Data...3680022622</v>
         <stp/>
         <stp>BDP|13480522496411794070</stp>
         <tr r="B2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3332685741</v>
+        <v>#N/A Requesting Data...4245713773</v>
         <stp/>
         <stp>BDP|12626148836737214956</stp>
         <tr r="B71" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104898414</v>
+        <v>#N/A Requesting Data...3548959234</v>
         <stp/>
         <stp>BDP|10007579386437109434</stp>
         <tr r="B61" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2676411697</v>
+        <v>#N/A Requesting Data...3155360554</v>
         <stp/>
         <stp>BDP|13786762053757804890</stp>
         <tr r="B127" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2418710927</v>
+        <v>#N/A Requesting Data...3009388486</v>
         <stp/>
         <stp>BDP|13105363393574584328</stp>
         <tr r="B16" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3832396887</v>
+        <v>#N/A Requesting Data...3179765847</v>
         <stp/>
         <stp>BDP|14673271721463665950</stp>
         <tr r="B114" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3131483369</v>
+        <v>#N/A Requesting Data...3397703628</v>
         <stp/>
         <stp>BDP|12362953316472288605</stp>
         <tr r="B75" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2069197503</v>
+        <v>#N/A Requesting Data...3074105573</v>
         <stp/>
         <stp>BDP|17342163655925563811</stp>
         <tr r="B119" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2630846360</v>
+        <v>#N/A Requesting Data...3964668320</v>
         <stp/>
         <stp>BDP|15743441563478373175</stp>
         <tr r="B9" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3162164213</v>
+        <v>#N/A Requesting Data...3940692468</v>
         <stp/>
         <stp>BDP|17957403408534744927</stp>
         <tr r="B85" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3277028109</v>
+        <v>#N/A Requesting Data...3381601222</v>
         <stp/>
         <stp>BDP|11332858113901352719</stp>
         <tr r="B76" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4003041091</v>
+        <v>#N/A Requesting Data...4293012374</v>
         <stp/>
         <stp>BDP|17117802719127920766</stp>
         <tr r="B89" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1770448998</v>
+        <v>#N/A Requesting Data...3805754905</v>
         <stp/>
         <stp>BDP|10690242901725848836</stp>
         <tr r="B53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1889744712</v>
+        <v>#N/A Requesting Data...4022831418</v>
         <stp/>
         <stp>BDP|11543418776805269883</stp>
         <tr r="B51" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2890795117</v>
+        <v>#N/A Requesting Data...3770821362</v>
         <stp/>
         <stp>BDP|11898611085604693411</stp>
         <tr r="B50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3150465741</v>
+        <v>#N/A Requesting Data...3104812200</v>
         <stp/>
         <stp>BDP|10959630583195381406</stp>
         <tr r="B132" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3295217289</v>
+        <v>#N/A Requesting Data...4232102635</v>
         <stp/>
         <stp>BDP|11207652788038043858</stp>
         <tr r="B35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784521842</v>
+        <v>#N/A Requesting Data...4232721708</v>
         <stp/>
         <stp>BDP|16636092096872769220</stp>
         <tr r="B4" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1062797759</v>
+        <v>#N/A Requesting Data...3584782286</v>
         <stp/>
         <stp>BDP|13279119566649031299</stp>
         <tr r="B112" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1465656289</v>
+        <v>#N/A Requesting Data...3631594561</v>
         <stp/>
         <stp>BDP|18250035904447937036</stp>
         <tr r="B24" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3286359573</v>
+        <v>#N/A Requesting Data...3060590211</v>
         <stp/>
         <stp>BDP|13563354654488917223</stp>
         <tr r="B49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1131178774</v>
+        <v>#N/A Requesting Data...4136991693</v>
         <stp/>
         <stp>BDP|10174596148697601965</stp>
         <tr r="B95" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2629052777</v>
+        <v>#N/A Requesting Data...3831153826</v>
         <stp/>
         <stp>BDP|13915267928715467933</stp>
         <tr r="B110" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1748158062</v>
+        <v>#N/A Requesting Data...3154460261</v>
         <stp/>
         <stp>BDP|13739603230900751936</stp>
         <tr r="B29" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2761824746</v>
+        <v>#N/A Requesting Data...3539047914</v>
         <stp/>
         <stp>BDP|11438559196105750736</stp>
         <tr r="B42" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3683931521</v>
+        <v>#N/A Requesting Data...2982400184</v>
         <stp/>
         <stp>BDP|18272045347926706556</stp>
         <tr r="B26" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1936924578</v>
+        <v>#N/A Requesting Data...4225653453</v>
         <stp/>
         <stp>BDP|17154651447259858382</stp>
         <tr r="B39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1979592633</v>
+        <v>#N/A Requesting Data...4179462575</v>
         <stp/>
         <stp>BDP|17390921153804134019</stp>
         <tr r="B69" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...931311824</v>
+        <v>#N/A Requesting Data...4183633274</v>
         <stp/>
         <stp>BDP|10481800946286830588</stp>
         <tr r="B29" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...784281829</v>
+        <v>#N/A Requesting Data...3915233448</v>
         <stp/>
         <stp>BDP|15373361005191172837</stp>
         <tr r="B66" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3316861256</v>
+        <v>#N/A Requesting Data...4159609922</v>
+        <stp/>
+        <stp>BDP|15114833006445804790</stp>
+        <tr r="B118" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4203074053</v>
         <stp/>
         <stp>BDP|11659944810402458428</stp>
         <tr r="B107" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3704761811</v>
+        <v>#N/A Requesting Data...3150635212</v>
         <stp/>
         <stp>BDP|10390289293072887644</stp>
         <tr r="B102" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2480870954</v>
+        <v>#N/A Requesting Data...3894987362</v>
         <stp/>
         <stp>BDP|16995590087016694255</stp>
         <tr r="B82" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3484903256</v>
+        <v>#N/A Requesting Data...4175741098</v>
         <stp/>
         <stp>BDP|12679753794511394225</stp>
         <tr r="B23" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1544263404</v>
+        <v>#N/A Requesting Data...3323953783</v>
         <stp/>
         <stp>BDP|16587072768698271413</stp>
         <tr r="B92" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...796809726</v>
+        <v>#N/A Requesting Data...3922333129</v>
         <stp/>
         <stp>BDP|11785852209953663645</stp>
         <tr r="B103" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1145370091</v>
+        <v>#N/A Requesting Data...3118454247</v>
         <stp/>
         <stp>BDP|14188649367168998015</stp>
         <tr r="B41" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1580131112</v>
+        <v>#N/A Requesting Data...3560502875</v>
         <stp/>
         <stp>BDP|14363522126536896954</stp>
         <tr r="B139" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2999505937</v>
+        <v>#N/A Requesting Data...3618098490</v>
         <stp/>
         <stp>BDP|17354872842112548593</stp>
         <tr r="B42" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173912357</v>
+        <v>#N/A Requesting Data...3988125320</v>
         <stp/>
         <stp>BDP|11727795505329717363</stp>
         <tr r="B6" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1999746014</v>
+        <v>#N/A Requesting Data...3585070301</v>
         <stp/>
         <stp>BDP|18328716453850853647</stp>
         <tr r="B28" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3241103752</v>
+        <v>#N/A Requesting Data...4185169702</v>
         <stp/>
         <stp>BDP|15334789830454048967</stp>
         <tr r="B104" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...606649694</v>
+        <v>#N/A Requesting Data...3166708592</v>
         <stp/>
         <stp>BDP|16422644195712804723</stp>
         <tr r="B110" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2642762581</v>
+        <v>#N/A Requesting Data...3131455781</v>
         <stp/>
         <stp>BDP|13515054402567352819</stp>
         <tr r="B53" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1051130551</v>
+        <v>#N/A Requesting Data...3202443547</v>
         <stp/>
         <stp>BDP|18404728824199720863</stp>
         <tr r="B99" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2710765758</v>
+        <v>#N/A Requesting Data...3119676432</v>
         <stp/>
         <stp>BDP|11272401187428423926</stp>
         <tr r="B65" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...753314729</v>
+        <v>#N/A Requesting Data...3112843333</v>
         <stp/>
         <stp>BDP|15222949586318697049</stp>
         <tr r="B45" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1408489317</v>
+        <v>#N/A Requesting Data...3204727091</v>
         <stp/>
         <stp>BDP|18175148571672191007</stp>
         <tr r="B64" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2903277518</v>
+        <v>#N/A Requesting Data...3542711495</v>
         <stp/>
         <stp>BDP|10610665890387032478</stp>
         <tr r="B79" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1645066843</v>
+        <v>#N/A Requesting Data...3115569520</v>
         <stp/>
         <stp>BDP|12541152932054660830</stp>
         <tr r="B91" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2869200535</v>
+        <v>#N/A Requesting Data...3280095346</v>
         <stp/>
         <stp>BDP|15784119789971864118</stp>
         <tr r="B4" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1987201524</v>
+        <v>#N/A Requesting Data...3471341248</v>
         <stp/>
         <stp>BDP|10164354490017982047</stp>
         <tr r="B56" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...646925248</v>
+        <v>#N/A Requesting Data...3019786028</v>
         <stp/>
         <stp>BDP|16377217091866822630</stp>
         <tr r="B19" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1351763011</v>
+        <v>#N/A Requesting Data...3968298851</v>
         <stp/>
         <stp>BDP|13459885654940813385</stp>
         <tr r="B111" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4099441527</v>
+        <v>#N/A Requesting Data...3558630629</v>
         <stp/>
         <stp>BDP|15489364685930889354</stp>
         <tr r="B103" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1770746679</v>
+        <v>#N/A Requesting Data...3784736644</v>
         <stp/>
         <stp>BDP|11304365017776916812</stp>
         <tr r="B100" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...784654215</v>
+        <v>#N/A Requesting Data...4018040386</v>
         <stp/>
         <stp>BDP|17350839368054390066</stp>
         <tr r="B18" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2145000589</v>
+        <v>#N/A Requesting Data...4034856651</v>
         <stp/>
         <stp>BDP|12190326364008205290</stp>
         <tr r="B71" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...542659666</v>
+        <v>#N/A Requesting Data...4190743901</v>
         <stp/>
         <stp>BDP|15320932859842537635</stp>
         <tr r="B63" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1877280494</v>
+        <v>#N/A Requesting Data...3346413659</v>
         <stp/>
         <stp>BDP|17561125439840046802</stp>
         <tr r="B75" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2744235925</v>
+        <v>#N/A Requesting Data...4151624114</v>
         <stp/>
         <stp>BDP|14529462920916447964</stp>
         <tr r="B104" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1491508799</v>
+        <v>#N/A Requesting Data...3483351244</v>
         <stp/>
         <stp>BDP|16426635404118654558</stp>
         <tr r="B4" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2639578619</v>
+        <v>#N/A Requesting Data...4132147644</v>
         <stp/>
         <stp>BDP|15828979669130579771</stp>
         <tr r="B42" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...934410085</v>
+        <v>#N/A Requesting Data...3603013503</v>
         <stp/>
         <stp>BDP|14547658480604736339</stp>
         <tr r="B98" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2472972880</v>
+        <v>#N/A Requesting Data...3039135827</v>
         <stp/>
         <stp>BDP|10864351349579868383</stp>
         <tr r="B40" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...714861007</v>
+        <v>#N/A Requesting Data...4144522195</v>
         <stp/>
         <stp>BDP|14158983232400651393</stp>
         <tr r="B43" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2189477510</v>
+        <v>#N/A Requesting Data...3407107960</v>
         <stp/>
         <stp>BDP|10164467592272142203</stp>
         <tr r="B100" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2497914308</v>
+        <v>#N/A Requesting Data...3137418052</v>
         <stp/>
         <stp>BDP|12064273684310159559</stp>
         <tr r="B116" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2333913677</v>
+        <v>#N/A Requesting Data...3975599892</v>
         <stp/>
         <stp>BDP|11521642228820566756</stp>
         <tr r="B90" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3813444612</v>
+        <v>#N/A Requesting Data...3120762074</v>
         <stp/>
         <stp>BDP|10000181755297594117</stp>
         <tr r="B51" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3801200593</v>
+        <v>#N/A Requesting Data...4128494107</v>
         <stp/>
         <stp>BDP|13800245927796615745</stp>
         <tr r="B16" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...600376567</v>
+        <v>#N/A Requesting Data...3872433312</v>
         <stp/>
         <stp>BDP|12984310306185604603</stp>
         <tr r="B15" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2072181621</v>
+        <v>#N/A Requesting Data...3167756938</v>
         <stp/>
         <stp>BDP|17280393472431438052</stp>
         <tr r="B89" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2287684576</v>
+        <v>#N/A Requesting Data...3547080172</v>
         <stp/>
         <stp>BDP|12976455110171376471</stp>
         <tr r="B47" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3812023032</v>
+        <v>#N/A Requesting Data...4142741651</v>
         <stp/>
         <stp>BDP|13452840779476189835</stp>
         <tr r="B58" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286997635</v>
+        <v>#N/A Requesting Data...3092358967</v>
         <stp/>
         <stp>BDP|13199601564706675793</stp>
         <tr r="B5" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1081552697</v>
+        <v>#N/A Requesting Data...3567233990</v>
         <stp/>
         <stp>BDP|11857806197222336064</stp>
         <tr r="B65" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1638322463</v>
+        <v>#N/A Requesting Data...3884419614</v>
         <stp/>
         <stp>BDP|14816541956195575336</stp>
         <tr r="B108" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3110987035</v>
+        <v>#N/A Requesting Data...3270107415</v>
         <stp/>
         <stp>BDP|14846101668245668489</stp>
         <tr r="B63" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1911577263</v>
+        <v>#N/A Requesting Data...3843218285</v>
         <stp/>
         <stp>BDP|15272898193832178476</stp>
         <tr r="B77" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3187561662</v>
+        <v>#N/A Requesting Data...3378584442</v>
         <stp/>
         <stp>BDP|17734431877995750355</stp>
         <tr r="B6" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1200670452</v>
+        <v>#N/A Requesting Data...3834780076</v>
         <stp/>
         <stp>BDP|13434365125062600205</stp>
         <tr r="B48" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1867670918</v>
+        <v>#N/A Requesting Data...3376554612</v>
         <stp/>
         <stp>BDP|16032557685880591953</stp>
         <tr r="B23" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1429635611</v>
+        <v>#N/A Requesting Data...4010920999</v>
         <stp/>
         <stp>BDP|16165262027996154228</stp>
         <tr r="B70" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3394984329</v>
+        <v>#N/A Requesting Data...3352904005</v>
         <stp/>
         <stp>BDP|16782555281178386124</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...984669571</v>
+        <v>#N/A Requesting Data...3461065918</v>
         <stp/>
         <stp>BDP|10135000006684261608</stp>
         <tr r="B28" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3525390929</v>
+        <v>#N/A Requesting Data...3613120788</v>
         <stp/>
         <stp>BDP|14715066666799492963</stp>
         <tr r="B85" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1689040990</v>
+        <v>#N/A Requesting Data...3894773252</v>
         <stp/>
         <stp>BDP|11479343630457542409</stp>
         <tr r="B124" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963329497</v>
+        <v>#N/A Requesting Data...3134257147</v>
         <stp/>
         <stp>BDP|15172775176182023544</stp>
         <tr r="B48" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2488967316</v>
+        <v>#N/A Requesting Data...4188039245</v>
         <stp/>
         <stp>BDP|14927955459183105902</stp>
         <tr r="B56" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1462343789</v>
+        <v>#N/A Requesting Data...3470167460</v>
         <stp/>
         <stp>BDP|11924629745709866813</stp>
         <tr r="B32" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1239255030</v>
+        <v>#N/A Requesting Data...3099167781</v>
         <stp/>
         <stp>BDP|12526070215140061108</stp>
         <tr r="B84" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3061871162</v>
+        <v>#N/A Requesting Data...3657342566</v>
         <stp/>
         <stp>BDP|10234196934504164484</stp>
         <tr r="B70" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1921053551</v>
+        <v>#N/A Requesting Data...3206064745</v>
         <stp/>
         <stp>BDP|14139149273052845377</stp>
         <tr r="B142" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1225668353</v>
+        <v>#N/A Requesting Data...3491674456</v>
         <stp/>
         <stp>BDP|12484582131031488613</stp>
         <tr r="B123" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2619258180</v>
+        <v>#N/A Requesting Data...3424885299</v>
         <stp/>
         <stp>BDP|16741448868143762470</stp>
         <tr r="B138" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2953219844</v>
+        <v>#N/A Requesting Data...4011649205</v>
         <stp/>
         <stp>BDP|13971423879817843412</stp>
         <tr r="B111" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1044646961</v>
+        <v>#N/A Requesting Data...3185854933</v>
         <stp/>
         <stp>BDP|11993972897273568170</stp>
         <tr r="B63" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3704102723</v>
+        <v>#N/A Requesting Data...3442646688</v>
         <stp/>
         <stp>BDP|11853187234228998867</stp>
         <tr r="B18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...996566372</v>
+        <v>#N/A Requesting Data...3280265846</v>
         <stp/>
         <stp>BDP|12232904679037512850</stp>
         <tr r="B68" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1498668479</v>
+        <v>#N/A Requesting Data...3247951601</v>
         <stp/>
         <stp>BDP|13244611188109654767</stp>
         <tr r="B57" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2282164658</v>
+        <v>#N/A Requesting Data...3432547136</v>
         <stp/>
         <stp>BDP|10685203671347800151</stp>
         <tr r="B13" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1261046924</v>
+        <v>#N/A Requesting Data...3922506699</v>
         <stp/>
         <stp>BDP|12549200347415945217</stp>
         <tr r="B35" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3953857710</v>
+        <v>#N/A Requesting Data...3885208411</v>
         <stp/>
         <stp>BDP|12722100538591067251</stp>
         <tr r="B3" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1640264483</v>
+        <v>#N/A Requesting Data...3988720059</v>
         <stp/>
         <stp>BDP|13215317870953012799</stp>
         <tr r="B58" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191201883</v>
+        <v>#N/A Requesting Data...3632855284</v>
         <stp/>
         <stp>BDP|12072729901101761798</stp>
         <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1327633873</v>
+        <v>#N/A Requesting Data...3491425844</v>
         <stp/>
         <stp>BDP|13242199821736714517</stp>
         <tr r="B80" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1100045724</v>
+        <v>#N/A Requesting Data...3580576877</v>
         <stp/>
         <stp>BDP|14972599149030788625</stp>
         <tr r="B123" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4077660143</v>
+        <v>#N/A Requesting Data...3397917597</v>
         <stp/>
         <stp>BDP|11971936906633239825</stp>
         <tr r="B88" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3096523888</v>
+        <v>#N/A Requesting Data...4018657617</v>
         <stp/>
         <stp>BDP|13316938480242621393</stp>
         <tr r="B74" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...711787443</v>
+        <v>#N/A Requesting Data...3799354005</v>
         <stp/>
         <stp>BDP|11897333819932872240</stp>
         <tr r="B21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2494274052</v>
+        <v>#N/A Requesting Data...3654452523</v>
         <stp/>
         <stp>BDP|11294250164000203600</stp>
         <tr r="B94" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4139857810</v>
+        <v>#N/A Requesting Data...3801734388</v>
         <stp/>
         <stp>BDP|13469463757477135651</stp>
         <tr r="B101" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1849778929</v>
+        <v>#N/A Requesting Data...3340228248</v>
         <stp/>
         <stp>BDP|11071059046891746752</stp>
         <tr r="B52" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...979388583</v>
+        <v>#N/A Requesting Data...3658480498</v>
         <stp/>
         <stp>BDP|11627351301435761444</stp>
         <tr r="B36" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1354987394</v>
+        <v>#N/A Requesting Data...3187189512</v>
         <stp/>
         <stp>BDP|18096738947031753935</stp>
         <tr r="B127" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3648020766</v>
+        <v>#N/A Requesting Data...3872017764</v>
         <stp/>
         <stp>BDP|10908707806030428487</stp>
         <tr r="B109" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3172666406</v>
+        <v>#N/A Requesting Data...4085111314</v>
         <stp/>
         <stp>BDP|18338876406674022715</stp>
         <tr r="B49" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3249644820</v>
+        <v>#N/A Requesting Data...3272399139</v>
         <stp/>
         <stp>BDP|10685612824232740511</stp>
         <tr r="B136" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3204086527</v>
+        <v>#N/A Requesting Data...3208563001</v>
         <stp/>
         <stp>BDP|16197777112854081705</stp>
         <tr r="B49" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1936398730</v>
+        <v>#N/A Requesting Data...3890605740</v>
         <stp/>
         <stp>BDP|13573950802881352850</stp>
         <tr r="B57" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2543886725</v>
+        <v>#N/A Requesting Data...4197762134</v>
         <stp/>
         <stp>BDP|10178357929385840717</stp>
         <tr r="B44" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...901388592</v>
+        <v>#N/A Requesting Data...3238501216</v>
         <stp/>
         <stp>BDP|16204350656411679206</stp>
         <tr r="B73" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...710871210</v>
+        <v>#N/A Requesting Data...3368374620</v>
         <stp/>
         <stp>BDP|10974757408053145720</stp>
         <tr r="B3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...902851226</v>
+        <v>#N/A Requesting Data...4071909681</v>
         <stp/>
         <stp>BDP|15410579675132339633</stp>
         <tr r="B106" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...851320407</v>
+        <v>#N/A Requesting Data...3375000390</v>
         <stp/>
         <stp>BDP|10152215713154369469</stp>
         <tr r="B60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2749886238</v>
+        <v>#N/A Requesting Data...3246501569</v>
         <stp/>
         <stp>BDP|14134563608078760918</stp>
         <tr r="B25" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4072170708</v>
+        <v>#N/A Requesting Data...3407174948</v>
         <stp/>
         <stp>BDP|12494559323811920434</stp>
         <tr r="B83" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1274058741</v>
+        <v>#N/A Requesting Data...4176467148</v>
         <stp/>
         <stp>BDP|13734157000647244587</stp>
         <tr r="B36" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1241354286</v>
+        <v>#N/A Requesting Data...3210991917</v>
         <stp/>
         <stp>BDP|15820142656572408356</stp>
         <tr r="B49" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2155683106</v>
+        <v>#N/A Requesting Data...3512063374</v>
         <stp/>
         <stp>BDP|15529984397546812390</stp>
         <tr r="B82" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...837793473</v>
+        <v>#N/A Requesting Data...4084007434</v>
         <stp/>
         <stp>BDP|11885155321267861593</stp>
         <tr r="B33" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4014550343</v>
+        <v>#N/A Requesting Data...3994022899</v>
         <stp/>
         <stp>BDP|13349474189036007921</stp>
         <tr r="B48" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2234161644</v>
+        <v>#N/A Requesting Data...3271171131</v>
         <stp/>
         <stp>BDP|11731650223302921768</stp>
         <tr r="B35" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...740454348</v>
+        <v>#N/A Requesting Data...3627796408</v>
         <stp/>
         <stp>BDP|16534514208593513077</stp>
         <tr r="B64" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104119885</v>
+        <v>#N/A Requesting Data...3506721505</v>
         <stp/>
         <stp>BDP|16034898979540936986</stp>
         <tr r="B43" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1681957689</v>
+        <v>#N/A Requesting Data...3385985319</v>
         <stp/>
         <stp>BDP|15396013509765973033</stp>
         <tr r="B122" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3417440201</v>
+        <v>#N/A Requesting Data...3564755833</v>
         <stp/>
         <stp>BDP|10193605863587682758</stp>
         <tr r="B5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3913473382</v>
+        <v>#N/A Requesting Data...3693892281</v>
         <stp/>
         <stp>BDP|14894081172442133127</stp>
         <tr r="B89" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...714460921</v>
+        <v>#N/A Requesting Data...3592208477</v>
         <stp/>
         <stp>BDP|14672658826880503019</stp>
         <tr r="B3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...735343466</v>
+        <v>#N/A Requesting Data...3493287364</v>
         <stp/>
         <stp>BDP|17221936348922141883</stp>
         <tr r="B8" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1793314507</v>
+        <v>#N/A Requesting Data...3762972906</v>
         <stp/>
         <stp>BDP|15554786095032127995</stp>
         <tr r="B27" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3388378572</v>
+        <v>#N/A Requesting Data...3508445860</v>
         <stp/>
         <stp>BDP|14051397074636612688</stp>
         <tr r="B54" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3898617730</v>
+        <v>#N/A Requesting Data...3331388333</v>
         <stp/>
         <stp>BDP|12191900095836071472</stp>
         <tr r="B22" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1474058127</v>
+        <v>#N/A Requesting Data...3644084069</v>
         <stp/>
         <stp>BDP|13695104723585764507</stp>
         <tr r="B75" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2272670157</v>
+        <v>#N/A Requesting Data...3541675893</v>
         <stp/>
         <stp>BDP|17169777222060108201</stp>
         <tr r="B60" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1961647926</v>
+        <v>#N/A Requesting Data...3225887419</v>
         <stp/>
         <stp>BDP|17472036413183622577</stp>
         <tr r="B13" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2953158631</v>
+        <v>#N/A Requesting Data...3405794290</v>
         <stp/>
         <stp>BDP|10271088459465054040</stp>
         <tr r="B2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3452184597</v>
+        <v>#N/A Requesting Data...3710261368</v>
         <stp/>
         <stp>BDP|10286310943892383551</stp>
         <tr r="B98" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2883686729</v>
+        <v>#N/A Requesting Data...3216111136</v>
         <stp/>
         <stp>BDP|11087078736251792308</stp>
         <tr r="B62" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3574778911</v>
+        <v>#N/A Requesting Data...3238910000</v>
         <stp/>
         <stp>BDP|13462423004722911427</stp>
         <tr r="B16" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...936210086</v>
+        <v>#N/A Requesting Data...3216558094</v>
         <stp/>
         <stp>BDP|15626575416476907664</stp>
         <tr r="B40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3554646713</v>
+        <v>#N/A Requesting Data...3494920602</v>
         <stp/>
         <stp>BDP|12995112726663591332</stp>
         <tr r="B100" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1140982022</v>
+        <v>#N/A Requesting Data...4122743135</v>
         <stp/>
         <stp>BDP|10110366501563672180</stp>
         <tr r="B91" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2219666888</v>
+        <v>#N/A Requesting Data...4012897914</v>
         <stp/>
         <stp>BDP|10804935996316148761</stp>
         <tr r="B67" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1739946408</v>
+        <v>#N/A Requesting Data...3777683796</v>
         <stp/>
         <stp>BDP|16766766583511952969</stp>
         <tr r="B107" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2746307027</v>
+        <v>#N/A Requesting Data...4003773439</v>
         <stp/>
         <stp>BDP|17975502774335281137</stp>
         <tr r="B66" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2609564787</v>
+        <v>#N/A Requesting Data...3659899651</v>
         <stp/>
         <stp>BDP|10159813658869559515</stp>
         <tr r="B21" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2585286503</v>
+        <v>#N/A Requesting Data...3342724457</v>
         <stp/>
         <stp>BDP|12163969487691906370</stp>
         <tr r="B106" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803652342</v>
+        <v>#N/A Requesting Data...3928984114</v>
         <stp/>
         <stp>BDP|15653892513439452465</stp>
         <tr r="B14" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2864583773</v>
+        <v>#N/A Requesting Data...3374114593</v>
         <stp/>
         <stp>BDP|18162029885411647014</stp>
         <tr r="B96" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2251160528</v>
+        <v>#N/A Requesting Data...3255956821</v>
         <stp/>
         <stp>BDP|17789740246684655133</stp>
         <tr r="B56" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3910965381</v>
+        <v>#N/A Requesting Data...3366112439</v>
         <stp/>
         <stp>BDP|11509020035850227306</stp>
         <tr r="B76" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1943961983</v>
+        <v>#N/A Requesting Data...3341717010</v>
         <stp/>
         <stp>BDP|17745013677553324222</stp>
         <tr r="B54" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...796075151</v>
+        <v>#N/A Requesting Data...3891469792</v>
         <stp/>
         <stp>BDP|12657500848867829550</stp>
         <tr r="B21" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3117432332</v>
+        <v>#N/A Requesting Data...3938174232</v>
         <stp/>
         <stp>BDP|17218156504942827582</stp>
         <tr r="B12" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1814256647</v>
+        <v>#N/A Requesting Data...3932218403</v>
         <stp/>
         <stp>BDP|10045807054198572422</stp>
         <tr r="B62" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...770387938</v>
+        <v>#N/A Requesting Data...3392181775</v>
         <stp/>
         <stp>BDP|18349398939211527849</stp>
         <tr r="B119" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...872846023</v>
+        <v>#N/A Requesting Data...3842150739</v>
         <stp/>
         <stp>BDP|15070030005026783261</stp>
         <tr r="B50" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1728928262</v>
+        <v>#N/A Requesting Data...4264668004</v>
         <stp/>
         <stp>BDP|13999457383846006882</stp>
         <tr r="B26" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3749373701</v>
+        <v>#N/A Requesting Data...4142651157</v>
         <stp/>
         <stp>BDP|15436761187512141928</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...820629690</v>
+        <v>#N/A Requesting Data...3446470087</v>
         <stp/>
         <stp>BDP|15559286316596392610</stp>
         <tr r="B39" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2706391087</v>
+        <v>#N/A Requesting Data...3758661820</v>
         <stp/>
         <stp>BDP|11455563772601920402</stp>
         <tr r="B92" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3963965523</v>
+        <v>#N/A Requesting Data...3607252537</v>
         <stp/>
         <stp>BDP|13045115107017706385</stp>
         <tr r="B21" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261782611</v>
+        <v>#N/A Requesting Data...3903689839</v>
         <stp/>
         <stp>BDP|15921258862414745315</stp>
         <tr r="B46" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1670400620</v>
+        <v>#N/A Requesting Data...4257330391</v>
         <stp/>
         <stp>BDP|14656674854657437698</stp>
         <tr r="B55" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1095937425</v>
+        <v>#N/A Requesting Data...3283825727</v>
         <stp/>
         <stp>BDP|15274660503577931267</stp>
         <tr r="B105" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3549291061</v>
+        <v>#N/A Requesting Data...3909760358</v>
         <stp/>
         <stp>BDP|12615781312784318670</stp>
         <tr r="B20" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2422844089</v>
+        <v>#N/A Requesting Data...3757804101</v>
         <stp/>
         <stp>BDP|14445830696621870211</stp>
         <tr r="B17" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1046818169</v>
+        <v>#N/A Requesting Data...3359250681</v>
         <stp/>
         <stp>BDP|11903533733672227308</stp>
         <tr r="B32" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3416084596</v>
+        <v>#N/A Requesting Data...3873494241</v>
         <stp/>
         <stp>BDP|10611289749209830949</stp>
         <tr r="B135" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3954910136</v>
+        <v>#N/A Requesting Data...3535349193</v>
         <stp/>
         <stp>BDP|18269784686006496727</stp>
         <tr r="B34" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626758366</v>
+        <v>#N/A Requesting Data...3900482111</v>
         <stp/>
         <stp>BDP|11759250642153904236</stp>
         <tr r="B80" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2696495740</v>
+        <v>#N/A Requesting Data...3631941971</v>
         <stp/>
         <stp>BDP|16337598170133713179</stp>
         <tr r="B81" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1624580386</v>
+        <v>#N/A Requesting Data...3410849577</v>
         <stp/>
         <stp>BDP|12643631275321990445</stp>
         <tr r="B38" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120272531</v>
+        <v>#N/A Requesting Data...3658596956</v>
         <stp/>
         <stp>BDP|14325257521697386597</stp>
         <tr r="B67" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1614930963</v>
+        <v>#N/A Requesting Data...4081394692</v>
         <stp/>
         <stp>BDP|15055678966951416289</stp>
         <tr r="B101" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3598956038</v>
+        <v>#N/A Requesting Data...3989662145</v>
         <stp/>
         <stp>BDP|11509504208634077601</stp>
         <tr r="B61" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1827624789</v>
+        <v>#N/A Requesting Data...4040399912</v>
         <stp/>
         <stp>BDP|13376441114205767586</stp>
         <tr r="B107" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1790817433</v>
+        <v>#N/A Requesting Data...3812566513</v>
         <stp/>
         <stp>BDP|14167563671714197483</stp>
         <tr r="B54" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1783467624</v>
+        <v>#N/A Requesting Data...4161049978</v>
         <stp/>
         <stp>BDP|13536377539462643727</stp>
         <tr r="B15" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2724318477</v>
+        <v>#N/A Requesting Data...3664082267</v>
         <stp/>
         <stp>BDP|16958340486742004946</stp>
         <tr r="B81" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3631777124</v>
+        <v>#N/A Requesting Data...3355025211</v>
         <stp/>
         <stp>BDP|18365926668197581628</stp>
         <tr r="B60" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2713882085</v>
+        <v>#N/A Requesting Data...3323228859</v>
         <stp/>
         <stp>BDP|16496770297457987931</stp>
         <tr r="B31" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...968460895</v>
+        <v>#N/A Requesting Data...4140203763</v>
         <stp/>
         <stp>BDP|13936018582604265990</stp>
         <tr r="B78" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4046725570</v>
+        <v>#N/A Requesting Data...3958061387</v>
         <stp/>
         <stp>BDP|18147681898259692860</stp>
         <tr r="B88" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2505050536</v>
+        <v>#N/A Requesting Data...3589145529</v>
         <stp/>
         <stp>BDP|11560139195226387919</stp>
         <tr r="B85" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1878725545</v>
+        <v>#N/A Requesting Data...3440802585</v>
         <stp/>
         <stp>BDP|10941515718176456459</stp>
         <tr r="B34" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2701688800</v>
+        <v>#N/A Requesting Data...3890986811</v>
         <stp/>
         <stp>BDP|14425714252721188178</stp>
         <tr r="B96" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173675191</v>
+        <v>#N/A Requesting Data...3334293230</v>
         <stp/>
         <stp>BDP|11259097548594039736</stp>
         <tr r="B39" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1198726250</v>
+        <v>#N/A Requesting Data...3878639587</v>
         <stp/>
         <stp>BDP|16642894354318875536</stp>
         <tr r="B18" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3310441059</v>
+        <v>#N/A Requesting Data...3509652231</v>
         <stp/>
         <stp>BDP|11823833120134130989</stp>
         <tr r="B7" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1968658048</v>
+        <v>#N/A Requesting Data...3794454428</v>
         <stp/>
         <stp>BDP|10769334721743608410</stp>
         <tr r="B91" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1237869003</v>
+        <v>#N/A Requesting Data...3827068030</v>
         <stp/>
         <stp>BDP|16155730105964145335</stp>
         <tr r="B60" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1235837097</v>
+        <v>#N/A Requesting Data...3340833672</v>
         <stp/>
         <stp>BDP|11351609620360713335</stp>
         <tr r="B34" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2006770768</v>
+        <v>#N/A Requesting Data...3409997630</v>
         <stp/>
         <stp>BDP|13999288777204608470</stp>
         <tr r="B77" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1996878290</v>
+        <v>#N/A Requesting Data...3617083561</v>
         <stp/>
         <stp>BDP|10587297417054308006</stp>
         <tr r="B22" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1130239982</v>
+        <v>#N/A Requesting Data...3695375033</v>
         <stp/>
         <stp>BDP|11944417717313781008</stp>
         <tr r="B26" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3438936003</v>
+        <v>#N/A Requesting Data...3613701166</v>
         <stp/>
         <stp>BDP|13557521559485740146</stp>
         <tr r="B70" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2720498911</v>
+        <v>#N/A Requesting Data...4256506449</v>
         <stp/>
         <stp>BDP|17294127519735383577</stp>
         <tr r="B81" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1069769036</v>
+        <v>#N/A Requesting Data...3754851429</v>
         <stp/>
         <stp>BDP|12083456649373807687</stp>
         <tr r="B72" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1948557160</v>
+        <v>#N/A Requesting Data...3328378401</v>
         <stp/>
         <stp>BDP|13201279654140986345</stp>
         <tr r="B108" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1650589111</v>
+        <v>#N/A Requesting Data...4253044899</v>
         <stp/>
         <stp>BDP|16221253287073664899</stp>
         <tr r="B52" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3805216175</v>
+        <v>#N/A Requesting Data...4101325085</v>
         <stp/>
         <stp>BDP|12860350934117184272</stp>
         <tr r="B73" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3150975270</v>
+        <v>#N/A Requesting Data...3653474446</v>
         <stp/>
         <stp>BDP|12102513374442212594</stp>
         <tr r="B2" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1691921811</v>
+        <v>#N/A Requesting Data...3411188218</v>
         <stp/>
         <stp>BDP|14548088113140950290</stp>
         <tr r="B55" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3511840917</v>
+        <v>#N/A Requesting Data...4035932294</v>
         <stp/>
         <stp>BDP|17939891730322464950</stp>
         <tr r="B67" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3771738871</v>
+        <v>#N/A Requesting Data...3414467144</v>
         <stp/>
         <stp>BDP|16603614120341667405</stp>
         <tr r="B98" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3214873163</v>
+        <v>#N/A Requesting Data...4258082386</v>
         <stp/>
         <stp>BDP|17575206751222509524</stp>
         <tr r="B47" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3428481769</v>
+        <v>#N/A Requesting Data...4269082735</v>
         <stp/>
         <stp>BDP|11283251466920772251</stp>
         <tr r="B112" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2074227136</v>
+        <v>#N/A Requesting Data...3847700222</v>
         <stp/>
         <stp>BDP|18017674187573098229</stp>
         <tr r="B18" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2886260255</v>
+        <v>#N/A Requesting Data...3773289554</v>
         <stp/>
         <stp>BDP|12674503779057432091</stp>
         <tr r="B46" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2880588632</v>
+        <v>#N/A Requesting Data...3619733773</v>
         <stp/>
         <stp>BDP|12396984782385550190</stp>
         <tr r="B93" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3289087223</v>
+        <v>#N/A Requesting Data...4127509623</v>
         <stp/>
         <stp>BDP|13393483601411548180</stp>
         <tr r="B39" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1549298780</v>
+        <v>#N/A Requesting Data...4105150093</v>
         <stp/>
         <stp>BDP|12910745279904185134</stp>
         <tr r="B103" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294845906</v>
+        <v>#N/A Requesting Data...4141652196</v>
         <stp/>
         <stp>BDP|11627571304379472988</stp>
         <tr r="B35" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1052271297</v>
+        <v>#N/A Requesting Data...3587518035</v>
         <stp/>
         <stp>BDP|14970875334452652954</stp>
         <tr r="B126" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2042577411</v>
+        <v>#N/A Requesting Data...3669498994</v>
         <stp/>
         <stp>BDP|14896028958572922731</stp>
         <tr r="B60" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1476212953</v>
+        <v>#N/A Requesting Data...4249773061</v>
         <stp/>
         <stp>BDP|16805529426711672416</stp>
         <tr r="B4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2846513159</v>
+        <v>#N/A Requesting Data...3523498001</v>
         <stp/>
         <stp>BDP|10408050358898015925</stp>
         <tr r="B120" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2859532161</v>
+        <v>#N/A Requesting Data...3340826806</v>
         <stp/>
         <stp>BDP|11954231653082501070</stp>
         <tr r="B89" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1123744760</v>
+        <v>#N/A Requesting Data...3359415142</v>
         <stp/>
         <stp>BDP|10258233801186948037</stp>
         <tr r="B129" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2385680995</v>
+        <v>#N/A Requesting Data...3912147168</v>
         <stp/>
         <stp>BDP|16305463617826852174</stp>
         <tr r="B89" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1892925322</v>
+        <v>#N/A Requesting Data...3496707255</v>
         <stp/>
         <stp>BDP|18171987182098005559</stp>
         <tr r="B53" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2812524861</v>
+        <v>#N/A Requesting Data...3444805937</v>
         <stp/>
         <stp>BDP|16183619862801045335</stp>
         <tr r="B43" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769539596</v>
+        <v>#N/A Requesting Data...3337632015</v>
         <stp/>
         <stp>BDP|17614639875323115105</stp>
         <tr r="B17" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1944769103</v>
+        <v>#N/A Requesting Data...4003198067</v>
         <stp/>
         <stp>BDP|13548708950386368376</stp>
         <tr r="B57" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1944283158</v>
+        <v>#N/A Requesting Data...3947415156</v>
         <stp/>
         <stp>BDP|11261474704444001505</stp>
         <tr r="B99" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1157187951</v>
+        <v>#N/A Requesting Data...3481667414</v>
         <stp/>
         <stp>BDP|17240024812223556177</stp>
         <tr r="B14" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1236021202</v>
+        <v>#N/A Requesting Data...4258373455</v>
         <stp/>
         <stp>BDP|11529000016465494124</stp>
         <tr r="B22" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1040398136</v>
+        <v>#N/A Requesting Data...3831724375</v>
         <stp/>
         <stp>BDP|14773321982732233909</stp>
         <tr r="B95" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2022226585</v>
+        <v>#N/A Requesting Data...4275657335</v>
         <stp/>
         <stp>BDP|10480667505614075623</stp>
         <tr r="B76" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3586905265</v>
+        <v>#N/A Requesting Data...3697043552</v>
         <stp/>
         <stp>BDP|12471144517623140537</stp>
         <tr r="B20" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1420334611</v>
+        <v>#N/A Requesting Data...4207107098</v>
         <stp/>
         <stp>BDP|14528502033722911578</stp>
         <tr r="B78" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2903698186</v>
+        <v>#N/A Requesting Data...3427855078</v>
         <stp/>
         <stp>BDP|15468056938097041422</stp>
         <tr r="B75" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2783768981</v>
+        <v>#N/A Requesting Data...3727782688</v>
         <stp/>
         <stp>BDP|11826299303493912510</stp>
         <tr r="B103" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2401222756</v>
+        <v>#N/A Requesting Data...3980445979</v>
         <stp/>
         <stp>BDP|12874471908087555485</stp>
         <tr r="B17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2210376100</v>
+        <v>#N/A Requesting Data...4230180992</v>
         <stp/>
         <stp>BDP|17349798279187658581</stp>
         <tr r="B88" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4168235087</v>
+        <v>#N/A Requesting Data...3757971200</v>
         <stp/>
         <stp>BDP|11334143170864278691</stp>
         <tr r="B31" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212064492</v>
+        <v>#N/A Requesting Data...4016561121</v>
         <stp/>
         <stp>BDP|13878560599619979313</stp>
         <tr r="B12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3013354954</v>
+        <v>#N/A Requesting Data...4043747829</v>
         <stp/>
         <stp>BDP|16924462215123505516</stp>
         <tr r="B27" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4048871893</v>
+        <v>#N/A Requesting Data...3706487829</v>
         <stp/>
         <stp>BDP|10006654188609523298</stp>
         <tr r="B50" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3821782259</v>
+        <v>#N/A Requesting Data...3969623473</v>
         <stp/>
         <stp>BDP|17546502477141274118</stp>
         <tr r="B20" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1654701538</v>
+        <v>#N/A Requesting Data...4291112496</v>
         <stp/>
         <stp>BDP|16095318379277818017</stp>
         <tr r="B28" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1521573090</v>
+        <v>#N/A Requesting Data...4186869910</v>
         <stp/>
         <stp>BDP|15729244422147409758</stp>
         <tr r="B13" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4239412697</v>
+        <v>#N/A Requesting Data...4293102173</v>
         <stp/>
         <stp>BDP|12316633472272708452</stp>
         <tr r="B15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2269740339</v>
+        <v>#N/A Requesting Data...3627478418</v>
         <stp/>
         <stp>BDP|11452946420859665645</stp>
         <tr r="B36" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1545925362</v>
+        <v>#N/A Requesting Data...4153523363</v>
         <stp/>
         <stp>BDP|13077781000182399393</stp>
         <tr r="B8" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1305543256</v>
+        <v>#N/A Requesting Data...4079900162</v>
         <stp/>
         <stp>BDP|13201379575763785125</stp>
         <tr r="B32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2455978131</v>
+        <v>#N/A Requesting Data...3537334466</v>
         <stp/>
         <stp>BDP|16330228721454275765</stp>
         <tr r="B76" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1693024686</v>
+        <v>#N/A Requesting Data...3935739769</v>
         <stp/>
         <stp>BDP|15057773225224364154</stp>
         <tr r="B45" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1048760898</v>
+        <v>#N/A Requesting Data...3446594474</v>
         <stp/>
         <stp>BDP|18021138102009739512</stp>
         <tr r="B130" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1263827378</v>
+        <v>#N/A Requesting Data...3691144743</v>
         <stp/>
         <stp>BDP|10388330840606062476</stp>
         <tr r="B18" s="6"/>
@@ -4589,2449 +4779,2497 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2238785753</v>
+        <v>#N/A Requesting Data...3794615920</v>
         <stp/>
         <stp>BDP|1215345314066922916</stp>
         <tr r="B64" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2533476772</v>
+        <v>#N/A Requesting Data...3862818829</v>
         <stp/>
         <stp>BDP|7129702761368927237</stp>
         <tr r="B32" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2553400715</v>
+        <v>#N/A Requesting Data...4213024877</v>
         <stp/>
         <stp>BDP|9944562677242235517</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1394464947</v>
+        <v>#N/A Requesting Data...4048555668</v>
         <stp/>
         <stp>BDP|4655664063340114894</stp>
         <tr r="B9" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1358982327</v>
+        <v>#N/A Requesting Data...3828452012</v>
         <stp/>
         <stp>BDP|9108135464475699781</stp>
         <tr r="B51" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2882257824</v>
+        <v>#N/A Requesting Data...3444320334</v>
         <stp/>
         <stp>BDP|4170819209885578544</stp>
         <tr r="B52" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1874263159</v>
+        <v>#N/A Requesting Data...3574204988</v>
         <stp/>
         <stp>BDP|8570511627921936232</stp>
         <tr r="B26" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2780028813</v>
+        <v>#N/A Requesting Data...4093234010</v>
         <stp/>
         <stp>BDP|1898113461839063367</stp>
         <tr r="B43" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3301411703</v>
+        <v>#N/A Requesting Data...3693033563</v>
         <stp/>
         <stp>BDP|9730335028760630447</stp>
         <tr r="B77" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3360611037</v>
+        <v>#N/A Requesting Data...3750455477</v>
         <stp/>
         <stp>BDP|7128882331926742602</stp>
         <tr r="B94" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3479069719</v>
+        <v>#N/A Requesting Data...3690808413</v>
         <stp/>
         <stp>BDP|1397811828034503335</stp>
         <tr r="B115" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2838040296</v>
+        <v>#N/A Requesting Data...3848356647</v>
         <stp/>
         <stp>BDP|9872373365092336256</stp>
         <tr r="B88" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2018370372</v>
+        <v>#N/A Requesting Data...3800259476</v>
         <stp/>
         <stp>BDP|4968421098842926772</stp>
         <tr r="B44" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2686947785</v>
+        <v>#N/A Requesting Data...3577543099</v>
         <stp/>
         <stp>BDP|7971898515613814109</stp>
         <tr r="B59" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1392367744</v>
+        <v>#N/A Requesting Data...4102766386</v>
         <stp/>
         <stp>BDP|7529705219859573449</stp>
         <tr r="B60" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3149666056</v>
+        <v>#N/A Requesting Data...4052715803</v>
         <stp/>
         <stp>BDP|9521714274790543583</stp>
         <tr r="B62" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1683564096</v>
+        <v>#N/A Requesting Data...3945174442</v>
         <stp/>
         <stp>BDP|5242413135397211960</stp>
         <tr r="B69" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2115893237</v>
+        <v>#N/A Requesting Data...3718612554</v>
         <stp/>
         <stp>BDP|8899180708405280094</stp>
         <tr r="B64" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3373696459</v>
+        <v>#N/A Requesting Data...3479844199</v>
         <stp/>
         <stp>BDP|9181750954021489673</stp>
         <tr r="B118" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2034141966</v>
+        <v>#N/A Requesting Data...4113846820</v>
         <stp/>
         <stp>BDP|3206361223846081843</stp>
         <tr r="B136" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4145307842</v>
+        <v>#N/A Requesting Data...3554100218</v>
         <stp/>
         <stp>BDP|2677730521263499812</stp>
         <tr r="B11" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3573546259</v>
+        <v>#N/A Requesting Data...3701376925</v>
         <stp/>
         <stp>BDP|3451684299979167927</stp>
         <tr r="B100" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3690449869</v>
+        <v>#N/A Requesting Data...3553278566</v>
         <stp/>
         <stp>BDP|2536962887989160630</stp>
         <tr r="B67" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2433830439</v>
+        <v>#N/A Requesting Data...3992599815</v>
         <stp/>
         <stp>BDP|9313961552668157102</stp>
         <tr r="B14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4095864001</v>
+        <v>#N/A Requesting Data...4143094383</v>
         <stp/>
         <stp>BDP|9119174074230187344</stp>
         <tr r="B115" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1528592044</v>
+        <v>#N/A Requesting Data...3728477142</v>
         <stp/>
         <stp>BDP|2383114413867485929</stp>
         <tr r="B46" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3731584417</v>
+        <v>#N/A Requesting Data...3431364093</v>
         <stp/>
         <stp>BDP|4752616683626400055</stp>
         <tr r="B97" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2450246666</v>
+        <v>#N/A Requesting Data...4129061848</v>
         <stp/>
         <stp>BDP|1904155771782078879</stp>
         <tr r="B111" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3574762461</v>
+        <v>#N/A Requesting Data...3794843457</v>
         <stp/>
         <stp>BDP|5208013700148863010</stp>
         <tr r="B36" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291764547</v>
+        <v>#N/A Requesting Data...3756847336</v>
         <stp/>
         <stp>BDP|5130901868676932188</stp>
         <tr r="B17" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2513560038</v>
+        <v>#N/A Requesting Data...3488408740</v>
         <stp/>
         <stp>BDP|1004949179910161246</stp>
         <tr r="B113" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3242598498</v>
+        <v>#N/A Requesting Data...3507278891</v>
         <stp/>
         <stp>BDP|6587281939238895252</stp>
         <tr r="B93" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1174975191</v>
+        <v>#N/A Requesting Data...4010758119</v>
         <stp/>
         <stp>BDP|8881112551470613108</stp>
         <tr r="B33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2719543159</v>
+        <v>#N/A Requesting Data...3633508254</v>
         <stp/>
         <stp>BDP|4982630999230628695</stp>
         <tr r="B15" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3003027236</v>
+        <v>#N/A Requesting Data...3470732698</v>
         <stp/>
         <stp>BDP|7442831630992890338</stp>
         <tr r="B79" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3459455301</v>
+        <v>#N/A Requesting Data...3594401526</v>
         <stp/>
         <stp>BDP|2524173421758997479</stp>
         <tr r="B21" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3385191328</v>
+        <v>#N/A Requesting Data...3833222803</v>
         <stp/>
         <stp>BDP|1556624316498315301</stp>
         <tr r="B102" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2674702823</v>
+        <v>#N/A Requesting Data...4173326322</v>
         <stp/>
         <stp>BDP|3961385961552086932</stp>
         <tr r="B80" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2062446029</v>
+        <v>#N/A Requesting Data...4094554046</v>
         <stp/>
         <stp>BDP|1665663034661493839</stp>
         <tr r="B101" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2883856805</v>
+        <v>#N/A Requesting Data...3695752367</v>
         <stp/>
         <stp>BDP|8451236267791563049</stp>
         <tr r="B38" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2805471896</v>
+        <v>#N/A Requesting Data...3491782914</v>
         <stp/>
         <stp>BDP|4215020411051591955</stp>
         <tr r="B48" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2220763647</v>
+        <v>#N/A Requesting Data...3791991407</v>
+        <stp/>
+        <stp>BDP|9494812341541315913</stp>
+        <tr r="B117" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3758643950</v>
         <stp/>
         <stp>BDP|1959402226892198886</stp>
         <tr r="B79" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1227845119</v>
+        <v>#N/A Requesting Data...3902702148</v>
         <stp/>
         <stp>BDP|1272418948385418983</stp>
         <tr r="B5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3818786088</v>
+        <v>#N/A Requesting Data...3989594827</v>
         <stp/>
         <stp>BDP|9303227139545904066</stp>
         <tr r="B27" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3595634250</v>
+        <v>#N/A Requesting Data...3636894301</v>
         <stp/>
         <stp>BDP|6499714408934098890</stp>
         <tr r="B105" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2026355700</v>
+        <v>#N/A Requesting Data...3757174758</v>
         <stp/>
         <stp>BDP|4131863934410113265</stp>
         <tr r="B92" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3586516693</v>
+        <v>#N/A Requesting Data...3583323529</v>
         <stp/>
         <stp>BDP|8007313826492504673</stp>
         <tr r="B15" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2184072148</v>
+        <v>#N/A Requesting Data...3918244297</v>
         <stp/>
         <stp>BDP|3432373148152157809</stp>
         <tr r="B2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2989069489</v>
+        <v>#N/A Requesting Data...4120332733</v>
         <stp/>
         <stp>BDP|3960828352211001125</stp>
         <tr r="B72" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3712173315</v>
+        <v>#N/A Requesting Data...4278348458</v>
         <stp/>
         <stp>BDP|9973058937770321436</stp>
         <tr r="B23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1425828387</v>
+        <v>#N/A Requesting Data...4093711445</v>
         <stp/>
         <stp>BDP|9641656418499360907</stp>
         <tr r="B11" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3131501283</v>
+        <v>#N/A Requesting Data...3911306888</v>
         <stp/>
         <stp>BDP|8266327158694177417</stp>
         <tr r="B83" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2150687590</v>
+        <v>#N/A Requesting Data...4153963336</v>
         <stp/>
         <stp>BDP|9204080757822144022</stp>
         <tr r="B3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1163298488</v>
+        <v>#N/A Requesting Data...3893508581</v>
         <stp/>
         <stp>BDP|3351031381685813077</stp>
         <tr r="B14" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2282706774</v>
+        <v>#N/A Requesting Data...3604098573</v>
         <stp/>
         <stp>BDP|7340418732777628994</stp>
         <tr r="B102" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2859522711</v>
+        <v>#N/A Requesting Data...4200581992</v>
         <stp/>
         <stp>BDP|5225566067199504197</stp>
         <tr r="B42" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1219697461</v>
+        <v>#N/A Requesting Data...3888030775</v>
         <stp/>
         <stp>BDP|8020101564614816508</stp>
         <tr r="B27" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2269321554</v>
+        <v>#N/A Requesting Data...3603678779</v>
         <stp/>
         <stp>BDP|6726804562002110484</stp>
         <tr r="B65" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1895618666</v>
+        <v>#N/A Requesting Data...3935178455</v>
         <stp/>
         <stp>BDP|1002928443504225610</stp>
         <tr r="B96" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4100058939</v>
+        <v>#N/A Requesting Data...3896539395</v>
         <stp/>
         <stp>BDP|9021241351083161360</stp>
         <tr r="B106" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3837945203</v>
+        <v>#N/A Requesting Data...3704542068</v>
         <stp/>
         <stp>BDP|5203386727043801945</stp>
         <tr r="B30" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2747695124</v>
+        <v>#N/A Requesting Data...4133910813</v>
         <stp/>
         <stp>BDP|2370673273269728416</stp>
         <tr r="B58" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3379753398</v>
+        <v>#N/A Requesting Data...4188056140</v>
         <stp/>
         <stp>BDP|2467439986708494837</stp>
         <tr r="B7" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3394702422</v>
+        <v>#N/A Requesting Data...4174039100</v>
         <stp/>
         <stp>BDP|6391984971023967540</stp>
         <tr r="B12" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2520149918</v>
+        <v>#N/A Requesting Data...3487113336</v>
         <stp/>
         <stp>BDP|7480973361371106746</stp>
         <tr r="B42" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1522288719</v>
+        <v>#N/A Requesting Data...4196262642</v>
         <stp/>
         <stp>BDP|7954891374033980594</stp>
         <tr r="B35" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1379176657</v>
+        <v>#N/A Requesting Data...3954150862</v>
         <stp/>
         <stp>BDP|4606161921309837128</stp>
         <tr r="B36" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2718303433</v>
+        <v>#N/A Requesting Data...3564706109</v>
         <stp/>
         <stp>BDP|8233358020793441586</stp>
         <tr r="B31" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2015741389</v>
+        <v>#N/A Requesting Data...4134883182</v>
         <stp/>
         <stp>BDP|6926248434331203922</stp>
         <tr r="B40" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1990447196</v>
+        <v>#N/A Requesting Data...4038212195</v>
         <stp/>
         <stp>BDP|8972737771136679145</stp>
         <tr r="B3" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4145471894</v>
+        <v>#N/A Requesting Data...3668679383</v>
         <stp/>
         <stp>BDP|1999991124044934149</stp>
         <tr r="B115" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3431159808</v>
+        <v>#N/A Requesting Data...4197510805</v>
         <stp/>
         <stp>BDP|5589109417228842233</stp>
         <tr r="B54" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2644448270</v>
+        <v>#N/A Requesting Data...3779526016</v>
         <stp/>
         <stp>BDP|5441899299449347291</stp>
         <tr r="B58" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2434660860</v>
+        <v>#N/A Requesting Data...4159174193</v>
         <stp/>
         <stp>BDP|6626746673220649988</stp>
         <tr r="B9" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1576320780</v>
+        <v>#N/A Requesting Data...4271472206</v>
         <stp/>
         <stp>BDP|9988222575152242133</stp>
         <tr r="B65" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2427357770</v>
+        <v>#N/A Requesting Data...4248602406</v>
         <stp/>
         <stp>BDP|5487982313843140129</stp>
         <tr r="B99" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008342292</v>
+        <v>#N/A Requesting Data...3753824781</v>
         <stp/>
         <stp>BDP|9236494936987570659</stp>
         <tr r="B57" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3105685214</v>
+        <v>#N/A Requesting Data...4178101181</v>
         <stp/>
         <stp>BDP|4054754891213665608</stp>
         <tr r="B109" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1658757773</v>
+        <v>#N/A Requesting Data...4070616708</v>
         <stp/>
         <stp>BDP|5089862304466300426</stp>
         <tr r="B11" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1265936438</v>
+        <v>#N/A Requesting Data...3581468381</v>
         <stp/>
         <stp>BDP|8316403725518758921</stp>
         <tr r="B46" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3504016918</v>
+        <v>#N/A Requesting Data...3793400619</v>
         <stp/>
         <stp>BDP|9194779017648706866</stp>
         <tr r="B20" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3413900862</v>
+        <v>#N/A Requesting Data...3862815555</v>
         <stp/>
         <stp>BDP|4248915972213053603</stp>
         <tr r="B68" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1841185161</v>
+        <v>#N/A Requesting Data...3752704771</v>
         <stp/>
         <stp>BDP|8320957295293164449</stp>
         <tr r="B22" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3250952679</v>
+        <v>#N/A Requesting Data...4224403601</v>
         <stp/>
         <stp>BDP|2481412151064067823</stp>
         <tr r="B6" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2942342309</v>
+        <v>#N/A Requesting Data...4012975995</v>
         <stp/>
         <stp>BDP|5142693084450987423</stp>
         <tr r="B83" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3126306796</v>
+        <v>#N/A Requesting Data...3753156242</v>
         <stp/>
         <stp>BDP|4395822110987748517</stp>
         <tr r="B10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2458927238</v>
+        <v>#N/A Requesting Data...4193182468</v>
         <stp/>
         <stp>BDP|9943784136334005603</stp>
         <tr r="B71" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2116942494</v>
+        <v>#N/A Requesting Data...4034898449</v>
         <stp/>
         <stp>BDP|2819901341645794599</stp>
         <tr r="B72" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2682922550</v>
+        <v>#N/A Requesting Data...3673828873</v>
         <stp/>
         <stp>BDP|5066232292818078958</stp>
         <tr r="B33" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1626882167</v>
+        <v>#N/A Requesting Data...4125191759</v>
         <stp/>
         <stp>BDP|3273747948016908935</stp>
         <tr r="B25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262417272</v>
+        <v>#N/A Requesting Data...3959850910</v>
         <stp/>
         <stp>BDP|2613077990025231164</stp>
         <tr r="B108" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4069744985</v>
+        <v>#N/A Requesting Data...3917202711</v>
         <stp/>
         <stp>BDP|1212639187496660182</stp>
         <tr r="B95" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3876225497</v>
+        <v>#N/A Requesting Data...3561444595</v>
         <stp/>
         <stp>BDP|1291074683310265182</stp>
         <tr r="B55" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2475784945</v>
+        <v>#N/A Requesting Data...3932028784</v>
         <stp/>
         <stp>BDP|6036689650079414406</stp>
         <tr r="B44" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3113372697</v>
+        <v>#N/A Requesting Data...4069808757</v>
         <stp/>
         <stp>BDP|7180751198859568859</stp>
         <tr r="B62" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1731145835</v>
+        <v>#N/A Requesting Data...4139955753</v>
         <stp/>
         <stp>BDP|8538604539607480256</stp>
         <tr r="B81" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3939316360</v>
+        <v>#N/A Requesting Data...3871568590</v>
         <stp/>
         <stp>BDP|3597707194567753244</stp>
         <tr r="B79" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1807970989</v>
+        <v>#N/A Requesting Data...4056213195</v>
         <stp/>
         <stp>BDP|6301100594323509503</stp>
         <tr r="B78" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3153095690</v>
+        <v>#N/A Requesting Data...4171163655</v>
         <stp/>
         <stp>BDP|7245712694678085943</stp>
         <tr r="B84" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2054563657</v>
+        <v>#N/A Requesting Data...3951377789</v>
         <stp/>
         <stp>BDP|1464220396825651756</stp>
         <tr r="B96" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2241645919</v>
+        <v>#N/A Requesting Data...3712330397</v>
         <stp/>
         <stp>BDP|2005463663891452917</stp>
         <tr r="B67" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3182262064</v>
+        <v>#N/A Requesting Data...3931718949</v>
         <stp/>
         <stp>BDP|3908365191084906574</stp>
         <tr r="B82" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2512951067</v>
+        <v>#N/A Requesting Data...4143317962</v>
         <stp/>
         <stp>BDP|8915711829753938682</stp>
         <tr r="B53" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2873878539</v>
+        <v>#N/A Requesting Data...3889562744</v>
         <stp/>
         <stp>BDP|6316133159449838370</stp>
         <tr r="B17" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3687454999</v>
+        <v>#N/A Requesting Data...3603970560</v>
         <stp/>
         <stp>BDP|9676435055740567035</stp>
         <tr r="B115" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2726031274</v>
+        <v>#N/A Requesting Data...4239321741</v>
         <stp/>
         <stp>BDP|4082149493945052137</stp>
         <tr r="B86" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4030573697</v>
+        <v>#N/A Requesting Data...3877747496</v>
         <stp/>
         <stp>BDP|4351889920600664692</stp>
         <tr r="B117" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2144926931</v>
+        <v>#N/A Requesting Data...3671721654</v>
         <stp/>
         <stp>BDP|7212036909269409682</stp>
         <tr r="B31" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1979579263</v>
+        <v>#N/A Requesting Data...4151706400</v>
         <stp/>
         <stp>BDP|6542161967079450056</stp>
         <tr r="B84" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3168496064</v>
+        <v>#N/A Requesting Data...3802648032</v>
         <stp/>
         <stp>BDP|4692099021919437603</stp>
         <tr r="B113" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2000690101</v>
+        <v>#N/A Requesting Data...4146414944</v>
         <stp/>
         <stp>BDP|4110928641320115094</stp>
         <tr r="B106" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1407502870</v>
+        <v>#N/A Requesting Data...4175315434</v>
         <stp/>
         <stp>BDP|5745497882870669019</stp>
         <tr r="B66" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2677502508</v>
+        <v>#N/A Requesting Data...4290333437</v>
         <stp/>
         <stp>BDP|6807147757199511268</stp>
         <tr r="B39" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1975748828</v>
+        <v>#N/A Requesting Data...3894972784</v>
         <stp/>
         <stp>BDP|6660811368022672310</stp>
         <tr r="B76" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4066328583</v>
+        <v>#N/A Requesting Data...3596432160</v>
         <stp/>
         <stp>BDP|4872248991543341568</stp>
         <tr r="B23" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2245362888</v>
+        <v>#N/A Requesting Data...4252904672</v>
         <stp/>
         <stp>BDP|9678498434285174235</stp>
         <tr r="B110" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3397101250</v>
+        <v>#N/A Requesting Data...3984816692</v>
         <stp/>
         <stp>BDP|1659798115537026934</stp>
         <tr r="B35" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1521102354</v>
+        <v>#N/A Requesting Data...3683479370</v>
         <stp/>
         <stp>BDP|4802918010487783275</stp>
         <tr r="B58" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2520384865</v>
+        <v>#N/A Requesting Data...4095412361</v>
         <stp/>
         <stp>BDP|6187277583402808736</stp>
         <tr r="B104" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3189485781</v>
+        <v>#N/A Requesting Data...4245167266</v>
         <stp/>
         <stp>BDP|6674558612843800864</stp>
         <tr r="B70" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2783227957</v>
+        <v>#N/A Requesting Data...3919951818</v>
         <stp/>
         <stp>BDP|6394567933700272988</stp>
         <tr r="B87" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3629602250</v>
+        <v>#N/A Requesting Data...3845312108</v>
         <stp/>
         <stp>BDP|3371113892457820551</stp>
         <tr r="B120" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1867473728</v>
+        <v>#N/A Requesting Data...4080546253</v>
         <stp/>
         <stp>BDP|5600018689557998354</stp>
         <tr r="B94" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2127218217</v>
+        <v>#N/A Requesting Data...3897419231</v>
         <stp/>
         <stp>BDP|2390308587658596829</stp>
         <tr r="B59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2176963399</v>
+        <v>#N/A Requesting Data...4136633737</v>
         <stp/>
         <stp>BDP|8869556578296740523</stp>
         <tr r="B10" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3436905434</v>
+        <v>#N/A Requesting Data...3733629838</v>
         <stp/>
         <stp>BDP|1327058186924809498</stp>
         <tr r="B41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1848792443</v>
+        <v>#N/A Requesting Data...3915903928</v>
         <stp/>
         <stp>BDP|3431445990465717260</stp>
         <tr r="B2" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2279784699</v>
+        <v>#N/A Requesting Data...4215049986</v>
         <stp/>
         <stp>BDP|9033823300839468101</stp>
         <tr r="B92" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1388087341</v>
+        <v>#N/A Requesting Data...4202151268</v>
         <stp/>
         <stp>BDP|1575200268158908427</stp>
         <tr r="B52" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2115212816</v>
+        <v>#N/A Requesting Data...3782064355</v>
         <stp/>
         <stp>BDP|1779274844708743648</stp>
         <tr r="B126" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338449216</v>
+        <v>#N/A Requesting Data...3922887224</v>
         <stp/>
         <stp>BDP|4007419567486691978</stp>
         <tr r="B109" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2407643664</v>
+        <v>#N/A Requesting Data...4070456906</v>
         <stp/>
         <stp>BDP|2332342486482551233</stp>
         <tr r="B18" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4051487673</v>
+        <v>#N/A Requesting Data...4145785338</v>
         <stp/>
         <stp>BDP|1303459686045262158</stp>
         <tr r="B68" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3251536457</v>
+        <v>#N/A Requesting Data...4041739651</v>
         <stp/>
         <stp>BDP|7188930260256411728</stp>
         <tr r="B68" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866943977</v>
+        <v>#N/A Requesting Data...3734247594</v>
         <stp/>
         <stp>BDP|1527974273062031445</stp>
         <tr r="B105" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2657080135</v>
+        <v>#N/A Requesting Data...4201446999</v>
         <stp/>
         <stp>BDP|8020531934405002221</stp>
         <tr r="B4" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2492209985</v>
+        <v>#N/A Requesting Data...4149936419</v>
         <stp/>
         <stp>BDP|1774849251043179597</stp>
         <tr r="B53" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646677450</v>
+        <v>#N/A Requesting Data...3889834795</v>
         <stp/>
         <stp>BDP|4761965624272676785</stp>
         <tr r="B24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3735614949</v>
+        <v>#N/A Requesting Data...3909264398</v>
         <stp/>
         <stp>BDP|5710963464677905770</stp>
         <tr r="B133" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1714281506</v>
+        <v>#N/A Requesting Data...3666417247</v>
         <stp/>
         <stp>BDP|1289934378127807296</stp>
         <tr r="B137" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2577715770</v>
+        <v>#N/A Requesting Data...4290130860</v>
         <stp/>
         <stp>BDP|2288832138566223553</stp>
         <tr r="B59" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3037571700</v>
+        <v>#N/A Requesting Data...3710477228</v>
         <stp/>
         <stp>BDP|1539881512334280616</stp>
         <tr r="B40" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2729897854</v>
+        <v>#N/A Requesting Data...3692956438</v>
         <stp/>
         <stp>BDP|4056320090910629489</stp>
         <tr r="B7" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1985916073</v>
+        <v>#N/A Requesting Data...4085297728</v>
         <stp/>
         <stp>BDP|1409712041930082884</stp>
         <tr r="B93" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114580833</v>
+        <v>#N/A Requesting Data...4116443607</v>
         <stp/>
         <stp>BDP|3293277790343142195</stp>
         <tr r="B52" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2035250859</v>
+        <v>#N/A Requesting Data...3945153514</v>
         <stp/>
         <stp>BDP|2930191450519281507</stp>
         <tr r="B87" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188051554</v>
+        <v>#N/A Requesting Data...3717820789</v>
         <stp/>
         <stp>BDP|8675434595899137622</stp>
         <tr r="B40" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2854695218</v>
+        <v>#N/A Requesting Data...3723684319</v>
         <stp/>
         <stp>BDP|1614118833551253858</stp>
         <tr r="B31" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2812909513</v>
+        <v>#N/A Requesting Data...3894368161</v>
         <stp/>
         <stp>BDP|5693888563037741696</stp>
         <tr r="B35" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4012597976</v>
+        <v>#N/A Requesting Data...4147684269</v>
         <stp/>
         <stp>BDP|1787348099403864217</stp>
         <tr r="B93" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3066708758</v>
+        <v>#N/A Requesting Data...4129322846</v>
         <stp/>
         <stp>BDP|8463103877936705256</stp>
         <tr r="B15" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4103433204</v>
+        <v>#N/A Requesting Data...4140028966</v>
         <stp/>
         <stp>BDP|8937203622331985362</stp>
         <tr r="B83" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1878401202</v>
+        <v>#N/A Requesting Data...4041236862</v>
         <stp/>
         <stp>BDP|9149744930913722464</stp>
         <tr r="B56" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2833398783</v>
+        <v>#N/A Requesting Data...3975415549</v>
         <stp/>
         <stp>BDP|9021831438298676082</stp>
         <tr r="B25" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220042462</v>
+        <v>#N/A Requesting Data...4107422453</v>
         <stp/>
         <stp>BDP|9967865669634635950</stp>
         <tr r="B70" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2824262810</v>
+        <v>#N/A Requesting Data...4057541260</v>
         <stp/>
         <stp>BDP|6933989022817278196</stp>
         <tr r="B37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2469306688</v>
+        <v>#N/A Requesting Data...3885200540</v>
         <stp/>
         <stp>BDP|1980973936728456855</stp>
         <tr r="B61" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3513638617</v>
+        <v>#N/A Requesting Data...3860932739</v>
         <stp/>
         <stp>BDP|5714884545412559067</stp>
         <tr r="B125" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3847732813</v>
+        <v>#N/A Requesting Data...4195444045</v>
         <stp/>
         <stp>BDP|2780988074700165735</stp>
         <tr r="B52" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2608152370</v>
+        <v>#N/A Requesting Data...3866100733</v>
         <stp/>
         <stp>BDP|1700692449560663885</stp>
         <tr r="B129" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1622260240</v>
+        <v>#N/A Requesting Data...4138529182</v>
         <stp/>
         <stp>BDP|3154980721857367453</stp>
         <tr r="B78" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2744066181</v>
+        <v>#N/A Requesting Data...3895543898</v>
         <stp/>
         <stp>BDP|2479725253332329981</stp>
         <tr r="B38" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2263315272</v>
+        <v>#N/A Requesting Data...4158349277</v>
         <stp/>
         <stp>BDP|4882717431179025246</stp>
         <tr r="B75" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2755963599</v>
+        <v>#N/A Requesting Data...4234411337</v>
         <stp/>
         <stp>BDP|3994944105559479817</stp>
         <tr r="B24" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4240011465</v>
+        <v>#N/A Requesting Data...4062526152</v>
         <stp/>
         <stp>BDP|9563546712447772168</stp>
         <tr r="B2" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1834112267</v>
+        <v>#N/A Requesting Data...3755025385</v>
         <stp/>
         <stp>BDP|2211128296705405400</stp>
         <tr r="B134" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2338228141</v>
+        <v>#N/A Requesting Data...4021451956</v>
         <stp/>
         <stp>BDP|1691771898634801038</stp>
         <tr r="B6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1814442643</v>
+        <v>#N/A Requesting Data...3786316975</v>
         <stp/>
         <stp>BDP|9380815408083919905</stp>
         <tr r="B45" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2704196994</v>
+        <v>#N/A Requesting Data...4165395214</v>
         <stp/>
         <stp>BDP|7661910740979013842</stp>
         <tr r="B63" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1507445059</v>
+        <v>#N/A Requesting Data...4266446295</v>
         <stp/>
         <stp>BDP|4968926605551814767</stp>
         <tr r="B90" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2780956060</v>
+        <v>#N/A Requesting Data...3942230014</v>
         <stp/>
         <stp>BDP|1246005759157865832</stp>
         <tr r="B28" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2212260835</v>
+        <v>#N/A Requesting Data...3952956736</v>
         <stp/>
         <stp>BDP|6635548017369212060</stp>
         <tr r="B48" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3411886856</v>
+        <v>#N/A Requesting Data...4291311822</v>
         <stp/>
         <stp>BDP|3817691307289000778</stp>
         <tr r="B13" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2240554545</v>
+        <v>#N/A Requesting Data...3773479138</v>
         <stp/>
         <stp>BDP|7275426331219803285</stp>
         <tr r="B54" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2372769886</v>
+        <v>#N/A Requesting Data...3735546177</v>
         <stp/>
         <stp>BDP|2410944965891520771</stp>
         <tr r="B130" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2962678149</v>
+        <v>#N/A Requesting Data...4053859090</v>
         <stp/>
         <stp>BDP|5899801661740993074</stp>
         <tr r="B50" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2022932883</v>
+        <v>#N/A Requesting Data...3767531149</v>
         <stp/>
         <stp>BDP|8991556190876948917</stp>
         <tr r="B38" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2946189782</v>
+        <v>#N/A Requesting Data...4279864071</v>
         <stp/>
         <stp>BDP|5226102720234011965</stp>
         <tr r="B69" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1653734240</v>
+        <v>#N/A Requesting Data...4214246593</v>
         <stp/>
         <stp>BDP|7379361684041264669</stp>
         <tr r="B106" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1618214808</v>
+        <v>#N/A Requesting Data...4165998556</v>
         <stp/>
         <stp>BDP|6235701038504849289</stp>
         <tr r="B93" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2367397121</v>
+        <v>#N/A Requesting Data...3779366115</v>
         <stp/>
         <stp>BDP|1550654338358536857</stp>
         <tr r="B17" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020788614</v>
+        <v>#N/A Requesting Data...4229674122</v>
         <stp/>
         <stp>BDP|8646648402518817213</stp>
         <tr r="B114" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1621578169</v>
+        <v>#N/A Requesting Data...4074045872</v>
         <stp/>
         <stp>BDP|4872553963367281435</stp>
         <tr r="B19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779841646</v>
+        <v>#N/A Requesting Data...3834971177</v>
         <stp/>
         <stp>BDP|3295436806842192194</stp>
         <tr r="B131" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3808712104</v>
+        <v>#N/A Requesting Data...4190166627</v>
         <stp/>
         <stp>BDP|3972043077102624233</stp>
         <tr r="B48" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2387623357</v>
+        <v>#N/A Requesting Data...3824135936</v>
         <stp/>
         <stp>BDP|5653225519543197107</stp>
         <tr r="B41" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3365192255</v>
+        <v>#N/A Requesting Data...3862914958</v>
         <stp/>
         <stp>BDP|3952204184479830495</stp>
         <tr r="B13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1800625741</v>
+        <v>#N/A Requesting Data...4010806925</v>
         <stp/>
         <stp>BDP|2190707376237070152</stp>
         <tr r="B85" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4130486913</v>
+        <v>#N/A Requesting Data...3785773567</v>
         <stp/>
         <stp>BDP|5591620915391948797</stp>
         <tr r="B54" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2036731216</v>
+        <v>#N/A Requesting Data...4259036792</v>
         <stp/>
         <stp>BDP|1736520455853010628</stp>
         <tr r="B37" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2027313257</v>
+        <v>#N/A Requesting Data...3899470494</v>
         <stp/>
         <stp>BDP|5433585129657563122</stp>
         <tr r="B29" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3794659015</v>
+        <v>#N/A Requesting Data...4113274302</v>
         <stp/>
         <stp>BDP|8163364886453228401</stp>
         <tr r="B22" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2370194055</v>
+        <v>#N/A Requesting Data...4149878110</v>
         <stp/>
         <stp>BDP|5929631708875009229</stp>
         <tr r="B47" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3349633008</v>
+        <v>#N/A Requesting Data...3958885571</v>
         <stp/>
         <stp>BDP|3030527088938224295</stp>
         <tr r="B33" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1727902680</v>
+        <v>#N/A Requesting Data...3840480851</v>
         <stp/>
         <stp>BDP|5557134702232661239</stp>
         <tr r="B30" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2447176076</v>
+        <v>#N/A Requesting Data...4064993000</v>
         <stp/>
         <stp>BDP|6885703018915144106</stp>
         <tr r="B23" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1998804796</v>
+        <v>#N/A Requesting Data...4002430258</v>
         <stp/>
         <stp>BDP|2591052462894068436</stp>
         <tr r="B70" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3565466467</v>
+        <v>#N/A Requesting Data...4235825311</v>
         <stp/>
         <stp>BDP|1534511031635032637</stp>
         <tr r="B116" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2018582685</v>
+        <v>#N/A Requesting Data...3853074706</v>
         <stp/>
         <stp>BDP|3925184209593744592</stp>
         <tr r="B7" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2348273441</v>
+        <v>#N/A Requesting Data...4274272704</v>
         <stp/>
         <stp>BDP|4810749660852208397</stp>
         <tr r="B51" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2717310870</v>
+        <v>#N/A Requesting Data...3867759114</v>
         <stp/>
         <stp>BDP|5011239657415542358</stp>
         <tr r="B34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3182012375</v>
+        <v>#N/A Requesting Data...4018525006</v>
         <stp/>
         <stp>BDP|5704987144854870869</stp>
         <tr r="B12" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2418538327</v>
+        <v>#N/A Requesting Data...4218963136</v>
         <stp/>
         <stp>BDP|1307620427010427175</stp>
         <tr r="B51" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3169731512</v>
+        <v>#N/A Requesting Data...4008331325</v>
         <stp/>
         <stp>BDP|9365273256039805201</stp>
         <tr r="B7" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2689390737</v>
+        <v>#N/A Requesting Data...4284856460</v>
         <stp/>
         <stp>BDP|5140959539398374253</stp>
         <tr r="B61" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2267419823</v>
+        <v>#N/A Requesting Data...3917596986</v>
         <stp/>
         <stp>BDP|2774733830765999655</stp>
         <tr r="B24" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2013400699</v>
+        <v>#N/A Requesting Data...4255875951</v>
         <stp/>
         <stp>BDP|1873737513824049616</stp>
         <tr r="B7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3081427412</v>
+        <v>#N/A Requesting Data...4043518500</v>
         <stp/>
         <stp>BDP|9842658686262666044</stp>
         <tr r="B25" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1798817189</v>
+        <v>#N/A Requesting Data...3935866938</v>
         <stp/>
         <stp>BDP|7930392017250955072</stp>
         <tr r="B55" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2379551612</v>
+        <v>#N/A Requesting Data...4028561297</v>
         <stp/>
         <stp>BDP|2896256275685199749</stp>
         <tr r="B17" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2818417984</v>
+        <v>#N/A Requesting Data...4058187291</v>
         <stp/>
         <stp>BDP|5170112505013695203</stp>
         <tr r="B108" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286888340</v>
+        <v>#N/A Requesting Data...4129121792</v>
         <stp/>
         <stp>BDP|7322188988278640359</stp>
         <tr r="B11" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3392734043</v>
+        <v>#N/A Requesting Data...4001291789</v>
         <stp/>
         <stp>BDP|9754852734451480637</stp>
         <tr r="B5" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3109363735</v>
+        <v>#N/A Requesting Data...4117042224</v>
         <stp/>
         <stp>BDP|3987581055261355760</stp>
         <tr r="B64" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277485964</v>
+        <v>#N/A Requesting Data...3949086238</v>
         <stp/>
         <stp>BDP|6283224514084049429</stp>
         <tr r="B66" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1674510483</v>
+        <v>#N/A Requesting Data...4073542404</v>
         <stp/>
         <stp>BDP|5378852199355808406</stp>
         <tr r="B29" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1623773393</v>
+        <v>#N/A Requesting Data...4135253086</v>
         <stp/>
         <stp>BDP|4466122151237976291</stp>
         <tr r="B51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779494082</v>
+        <v>#N/A Requesting Data...4274677711</v>
         <stp/>
         <stp>BDP|3983180176187088702</stp>
         <tr r="B112" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3739518890</v>
+        <v>#N/A Requesting Data...4071918182</v>
         <stp/>
         <stp>BDP|8788273485664677349</stp>
         <tr r="B59" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2933286156</v>
+        <v>#N/A Requesting Data...3956983897</v>
         <stp/>
         <stp>BDP|5663870023993567930</stp>
         <tr r="B141" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2930647578</v>
+        <v>#N/A Requesting Data...4017880423</v>
         <stp/>
         <stp>BDP|8867229664461377896</stp>
         <tr r="B67" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2237148114</v>
+        <v>#N/A Requesting Data...3940535579</v>
         <stp/>
         <stp>BDP|2891496022447639619</stp>
         <tr r="B54" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2409896082</v>
+        <v>#N/A Requesting Data...4217810172</v>
         <stp/>
         <stp>BDP|5220950872328103604</stp>
         <tr r="B8" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4270678885</v>
+        <v>#N/A Requesting Data...3937106898</v>
         <stp/>
         <stp>BDP|6911438988847179872</stp>
         <tr r="B37" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2045994394</v>
+        <v>#N/A Requesting Data...4202469495</v>
         <stp/>
         <stp>BDP|4024419452607641700</stp>
         <tr r="B143" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1954949383</v>
+        <v>#N/A Requesting Data...3944878657</v>
         <stp/>
         <stp>BDP|5386578645204050541</stp>
         <tr r="B38" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2831211269</v>
+        <v>#N/A Requesting Data...4093019998</v>
         <stp/>
         <stp>BDP|4443688720634481229</stp>
         <tr r="B121" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2410560351</v>
+        <v>#N/A Requesting Data...3997440926</v>
         <stp/>
         <stp>BDP|2965866181915702138</stp>
         <tr r="B101" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2438208777</v>
+        <v>#N/A Requesting Data...4193702239</v>
         <stp/>
         <stp>BDP|5719065709765947694</stp>
         <tr r="B83" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2652098098</v>
+        <v>#N/A Requesting Data...4036871919</v>
         <stp/>
         <stp>BDP|3252484853350410451</stp>
         <tr r="B40" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3321506883</v>
+        <v>#N/A Requesting Data...3885700292</v>
         <stp/>
         <stp>BDP|5900443804845396227</stp>
         <tr r="B16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2315308165</v>
+        <v>#N/A Requesting Data...3998412397</v>
         <stp/>
         <stp>BDP|1850773234353101023</stp>
         <tr r="B68" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2641902575</v>
+        <v>#N/A Requesting Data...3975859627</v>
         <stp/>
         <stp>BDP|3746638457150293682</stp>
         <tr r="B25" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3825672933</v>
+        <v>#N/A Requesting Data...4294733898</v>
         <stp/>
         <stp>BDP|5899363168705954313</stp>
         <tr r="B140" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3835196277</v>
+        <v>#N/A Requesting Data...4086055938</v>
         <stp/>
         <stp>BDP|6682619518100477758</stp>
         <tr r="B56" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2815294052</v>
+        <v>#N/A Requesting Data...4111571677</v>
         <stp/>
         <stp>BDP|2625387748423804002</stp>
         <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4192050098</v>
+        <v>#N/A Requesting Data...4010271666</v>
         <stp/>
         <stp>BDP|5080009558496137067</stp>
         <tr r="B78" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4167019904</v>
+        <v>#N/A Requesting Data...3943933631</v>
         <stp/>
         <stp>BDP|8191785195526303609</stp>
         <tr r="B87" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3427279165</v>
+        <v>#N/A Requesting Data...3954008618</v>
         <stp/>
         <stp>BDP|5986292294241928914</stp>
         <tr r="B105" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188189972</v>
+        <v>#N/A Requesting Data...4173109911</v>
         <stp/>
         <stp>BDP|6806022876753569440</stp>
         <tr r="B86" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258344875</v>
+        <v>#N/A Requesting Data...3931392613</v>
         <stp/>
         <stp>BDP|8542787448218713509</stp>
         <tr r="B19" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000548293</v>
+        <v>#N/A Requesting Data...3962167243</v>
+        <stp/>
+        <stp>BDP|3517747722282446254</stp>
+        <tr r="B145" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4129844001</v>
         <stp/>
         <stp>BDP|5192882883754007795</stp>
         <tr r="B109" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3388890737</v>
+        <v>#N/A Requesting Data...3946309086</v>
         <stp/>
         <stp>BDP|2075537004105790437</stp>
         <tr r="B128" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2091844816</v>
+        <v>#N/A Requesting Data...4270011860</v>
         <stp/>
         <stp>BDP|6569863850678903590</stp>
         <tr r="B13" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2098004982</v>
+        <v>#N/A Requesting Data...4168161427</v>
         <stp/>
         <stp>BDP|7622131558300888553</stp>
         <tr r="B40" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3402769258</v>
+        <v>#N/A Requesting Data...3976769179</v>
         <stp/>
         <stp>BDP|5267334407942797212</stp>
         <tr r="B53" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3072577403</v>
+        <v>#N/A Requesting Data...3947943101</v>
         <stp/>
         <stp>BDP|1837481715754719637</stp>
         <tr r="B72" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2268522737</v>
+        <v>#N/A Requesting Data...3959285156</v>
         <stp/>
         <stp>BDP|7714416503117027224</stp>
         <tr r="B56" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2827109195</v>
+        <v>#N/A Requesting Data...4051015318</v>
         <stp/>
         <stp>BDP|7201348642026689050</stp>
         <tr r="B87" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2261860471</v>
+        <v>#N/A Requesting Data...3965245867</v>
         <stp/>
         <stp>BDP|4504619546039133971</stp>
         <tr r="B59" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2946218498</v>
+        <v>#N/A Requesting Data...4190133328</v>
         <stp/>
         <stp>BDP|5064062730521004126</stp>
         <tr r="B91" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2185245477</v>
+        <v>#N/A Requesting Data...4177481921</v>
         <stp/>
         <stp>BDP|5535952193921187278</stp>
         <tr r="B55" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2006941497</v>
+        <v>#N/A Requesting Data...4293966256</v>
+        <stp/>
+        <stp>BDP|3692606424154806415</stp>
+        <tr r="B146" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4149004433</v>
         <stp/>
         <stp>BDP|6138883395900399042</stp>
         <tr r="B30" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1998669652</v>
+        <v>#N/A Requesting Data...4211202357</v>
         <stp/>
         <stp>BDP|7414626656263160090</stp>
         <tr r="B66" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3748606531</v>
+        <v>#N/A Requesting Data...4159913548</v>
         <stp/>
         <stp>BDP|9060832683467993966</stp>
         <tr r="B26" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3622095640</v>
+        <v>#N/A Requesting Data...3958272514</v>
         <stp/>
         <stp>BDP|9440937004371706688</stp>
         <tr r="B124" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2085250206</v>
+        <v>#N/A Requesting Data...3988220843</v>
         <stp/>
         <stp>BDP|5643046735114285591</stp>
         <tr r="B57" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2245308516</v>
+        <v>#N/A Requesting Data...4229607702</v>
         <stp/>
         <stp>BDP|2813525799989709082</stp>
         <tr r="B132" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2008700118</v>
+        <v>#N/A Requesting Data...3986968051</v>
         <stp/>
         <stp>BDP|9471280780423065706</stp>
         <tr r="B69" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3444756188</v>
+        <v>#N/A Requesting Data...3942742403</v>
         <stp/>
         <stp>BDP|2438081942056226712</stp>
         <tr r="B53" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3886054975</v>
+        <v>#N/A Requesting Data...4145379313</v>
+        <stp/>
+        <stp>BDP|4955052448185000290</stp>
+        <tr r="B147" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4102638745</v>
         <stp/>
         <stp>BDP|1485276963645443774</stp>
         <tr r="B74" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2384998167</v>
+        <v>#N/A Requesting Data...4065266390</v>
         <stp/>
         <stp>BDP|7491536677303639151</stp>
         <tr r="B71" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3009115999</v>
+        <v>#N/A Requesting Data...4101239778</v>
         <stp/>
         <stp>BDP|7253447816901808490</stp>
         <tr r="B38" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4035081357</v>
+        <v>#N/A Requesting Data...3953416282</v>
         <stp/>
         <stp>BDP|7195082355217830256</stp>
         <tr r="B43" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3983913798</v>
+        <v>#N/A Requesting Data...4075494019</v>
         <stp/>
         <stp>BDP|6302457709886003398</stp>
         <tr r="B134" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3213547837</v>
+        <v>#N/A Requesting Data...4152783915</v>
         <stp/>
         <stp>BDP|4636351731923625035</stp>
         <tr r="B41" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2139925532</v>
+        <v>#N/A Requesting Data...4109322707</v>
         <stp/>
         <stp>BDP|1528159909405551280</stp>
         <tr r="B29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1910706687</v>
+        <v>#N/A Requesting Data...4193325365</v>
         <stp/>
         <stp>BDP|3940736460175919073</stp>
         <tr r="B97" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3555128729</v>
+        <v>#N/A Requesting Data...4232008832</v>
         <stp/>
         <stp>BDP|9108958478700088087</stp>
         <tr r="B16" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2291620509</v>
+        <v>#N/A Requesting Data...4013383872</v>
         <stp/>
         <stp>BDP|7741071431124765721</stp>
         <tr r="B97" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4115677083</v>
+        <v>#N/A Requesting Data...4210186899</v>
         <stp/>
         <stp>BDP|2373615289273612893</stp>
         <tr r="B13" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2763893743</v>
+        <v>#N/A Requesting Data...4074050609</v>
         <stp/>
         <stp>BDP|2203160942355540573</stp>
         <tr r="B42" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2150800245</v>
+        <v>#N/A Requesting Data...4081069599</v>
         <stp/>
         <stp>BDP|1175126727864939184</stp>
         <tr r="B30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4285062017</v>
+        <v>#N/A Requesting Data...4165696780</v>
         <stp/>
         <stp>BDP|6306497834298640925</stp>
         <tr r="B65" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3917531233</v>
+        <v>#N/A Requesting Data...4051034163</v>
         <stp/>
         <stp>BDP|8686355490214004681</stp>
         <tr r="B26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3389401727</v>
+        <v>#N/A Requesting Data...4096836192</v>
         <stp/>
         <stp>BDP|7222058228907464200</stp>
         <tr r="B33" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2058874447</v>
+        <v>#N/A Requesting Data...4182356526</v>
         <stp/>
         <stp>BDP|6964575210280221274</stp>
         <tr r="B105" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2651827976</v>
+        <v>#N/A Requesting Data...3978925960</v>
         <stp/>
         <stp>BDP|3373210712717009789</stp>
         <tr r="B33" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210668829</v>
+        <v>#N/A Requesting Data...4061893568</v>
         <stp/>
         <stp>BDP|1691638168199101846</stp>
         <tr r="B25" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3131393871</v>
+        <v>#N/A Requesting Data...3984410685</v>
         <stp/>
         <stp>BDP|9025158620369454384</stp>
         <tr r="B99" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3421067209</v>
+        <v>#N/A Requesting Data...4094942403</v>
         <stp/>
         <stp>BDP|8916311416853607917</stp>
         <tr r="B6" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4046799572</v>
+        <v>#N/A Requesting Data...3999732500</v>
         <stp/>
         <stp>BDP|9675657352219925364</stp>
         <tr r="B24" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2256867279</v>
+        <v>#N/A Requesting Data...4042113523</v>
         <stp/>
         <stp>BDP|6133104374498254884</stp>
         <tr r="B87" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2155887172</v>
+        <v>#N/A Requesting Data...4104383930</v>
         <stp/>
         <stp>BDP|2167515581716415984</stp>
         <tr r="B104" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2874701752</v>
+        <v>#N/A Requesting Data...4256693574</v>
         <stp/>
         <stp>BDP|2343580816156708071</stp>
         <tr r="B8" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2392546501</v>
+        <v>#N/A Requesting Data...4102121412</v>
+        <stp/>
+        <stp>BDP|1220623450393411197</stp>
+        <tr r="B72" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4213643433</v>
         <stp/>
         <stp>BDP|3685056332137598767</stp>
         <tr r="B5" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2055798537</v>
+        <v>#N/A Requesting Data...4006221663</v>
         <stp/>
         <stp>BDP|2439042138359323895</stp>
         <tr r="B42" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2220886799</v>
+        <v>#N/A Requesting Data...4055406500</v>
         <stp/>
         <stp>BDP|9274936463452793478</stp>
         <tr r="B22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1946594701</v>
+        <v>#N/A Requesting Data...3989547770</v>
         <stp/>
         <stp>BDP|7889102138285160028</stp>
         <tr r="B3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2090366137</v>
+        <v>#N/A Requesting Data...4154901779</v>
         <stp/>
         <stp>BDP|3408706557465662430</stp>
         <tr r="B45" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2659974952</v>
+        <v>#N/A Requesting Data...4084957884</v>
         <stp/>
         <stp>BDP|4178772326839795805</stp>
         <tr r="B47" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2215204347</v>
+        <v>#N/A Requesting Data...4107694355</v>
         <stp/>
         <stp>BDP|2100606085394156821</stp>
         <tr r="B91" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2311686949</v>
+        <v>#N/A Requesting Data...4197326588</v>
         <stp/>
         <stp>BDP|2126198229987103659</stp>
         <tr r="B133" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2390857343</v>
+        <v>#N/A Requesting Data...4217434267</v>
         <stp/>
         <stp>BDP|2578632256109145846</stp>
         <tr r="B79" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4116510670</v>
+        <v>#N/A Requesting Data...4101017138</v>
         <stp/>
         <stp>BDP|1985154609264884576</stp>
         <tr r="B92" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3144409983</v>
+        <v>#N/A Requesting Data...4214539649</v>
         <stp/>
         <stp>BDP|1586599935837328108</stp>
         <tr r="B117" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3139006180</v>
+        <v>#N/A Requesting Data...4119490938</v>
         <stp/>
         <stp>BDP|7629066767595953546</stp>
         <tr r="B20" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2434421294</v>
+        <v>#N/A Requesting Data...4294167626</v>
         <stp/>
         <stp>BDP|4695104345316061685</stp>
         <tr r="B125" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2153510053</v>
+        <v>#N/A Requesting Data...4210057372</v>
         <stp/>
         <stp>BDP|5539568159852789650</stp>
         <tr r="B25" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2383688092</v>
+        <v>#N/A Requesting Data...4288791236</v>
         <stp/>
         <stp>BDP|5018562649605162075</stp>
         <tr r="B84" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2112045999</v>
+        <v>#N/A Requesting Data...4254912837</v>
         <stp/>
         <stp>BDP|4680812257669939171</stp>
         <tr r="B144" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4282656523</v>
+        <v>#N/A Requesting Data...4257479039</v>
         <stp/>
         <stp>BDP|4021822896365944116</stp>
         <tr r="B9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2581497159</v>
+        <v>#N/A Requesting Data...4247188187</v>
         <stp/>
         <stp>BDP|9005526507845113877</stp>
         <tr r="B21" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3066560229</v>
+        <v>#N/A Requesting Data...4122459512</v>
         <stp/>
         <stp>BDP|2137713668122286095</stp>
         <tr r="B39" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2084962063</v>
+        <v>#N/A Requesting Data...4271776724</v>
         <stp/>
         <stp>BDP|9321071358834759982</stp>
         <tr r="B90" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3226998379</v>
+        <v>#N/A Requesting Data...4045480639</v>
         <stp/>
         <stp>BDP|3704938796034265631</stp>
         <tr r="B57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2271306659</v>
+        <v>#N/A Requesting Data...4191188814</v>
         <stp/>
         <stp>BDP|8084179542854041850</stp>
         <tr r="B62" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1945722908</v>
+        <v>#N/A Requesting Data...4181368657</v>
         <stp/>
         <stp>BDP|9679067169648077691</stp>
         <tr r="B49" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3833116963</v>
+        <v>#N/A Requesting Data...4055683271</v>
         <stp/>
         <stp>BDP|8550775199685207292</stp>
         <tr r="B47" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2458355213</v>
+        <v>#N/A Requesting Data...4270146288</v>
         <stp/>
         <stp>BDP|3548266868606344099</stp>
         <tr r="B102" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3972260442</v>
+        <v>#N/A Requesting Data...4203409794</v>
         <stp/>
         <stp>BDP|6650858803677012813</stp>
         <tr r="B122" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2410080933</v>
+        <v>#N/A Requesting Data...4178968229</v>
         <stp/>
         <stp>BDP|7050605860171558748</stp>
         <tr r="B131" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3081593185</v>
+        <v>#N/A Requesting Data...4090113142</v>
         <stp/>
         <stp>BDP|7658460234792549303</stp>
         <tr r="B34" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4158702288</v>
+        <v>#N/A Requesting Data...4092812492</v>
         <stp/>
         <stp>BDP|9175059692761919090</stp>
         <tr r="B31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2156026436</v>
+        <v>#N/A Requesting Data...4091374069</v>
         <stp/>
         <stp>BDP|4433392240295246797</stp>
         <tr r="B90" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2737688430</v>
+        <v>#N/A Requesting Data...4226867164</v>
         <stp/>
         <stp>BDP|1567747467648573956</stp>
         <tr r="B88" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3085894783</v>
+        <v>#N/A Requesting Data...4042688076</v>
         <stp/>
         <stp>BDP|1263875073748520748</stp>
         <tr r="B72" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3764084906</v>
+        <v>#N/A Requesting Data...4179086269</v>
         <stp/>
         <stp>BDP|7479548138603982367</stp>
         <tr r="B41" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2044993829</v>
+        <v>#N/A Requesting Data...4201848006</v>
         <stp/>
         <stp>BDP|2337218870996239048</stp>
         <tr r="B24" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1922961427</v>
+        <v>#N/A Requesting Data...4074214509</v>
         <stp/>
         <stp>BDP|6110434630356639607</stp>
         <tr r="B45" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3116181118</v>
+        <v>#N/A Requesting Data...4180214416</v>
         <stp/>
         <stp>BDP|5073829018424976965</stp>
         <tr r="B104" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3841639259</v>
+        <v>#N/A Requesting Data...4147869609</v>
         <stp/>
         <stp>BDP|6891705903129957975</stp>
         <tr r="B74" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3132882573</v>
+        <v>#N/A Requesting Data...4272850836</v>
         <stp/>
         <stp>BDP|5135938687340891670</stp>
         <tr r="B36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3379352107</v>
+        <v>#N/A Requesting Data...4181478030</v>
         <stp/>
         <stp>BDP|6500614249224277253</stp>
         <tr r="B50" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2789689830</v>
+        <v>#N/A Requesting Data...4139810962</v>
         <stp/>
         <stp>BDP|9880108291757459476</stp>
         <tr r="B12" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4134652848</v>
+        <v>#N/A Requesting Data...4294270212</v>
         <stp/>
         <stp>BDP|3076388773524007102</stp>
         <tr r="B82" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2793675028</v>
+        <v>#N/A Requesting Data...4060538150</v>
         <stp/>
         <stp>BDP|8744822859452305542</stp>
         <tr r="B59" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3350806719</v>
+        <v>#N/A Requesting Data...4272484478</v>
         <stp/>
         <stp>BDP|7475729602874643695</stp>
         <tr r="B71" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2629654389</v>
+        <v>#N/A Requesting Data...4275521751</v>
         <stp/>
         <stp>BDP|4487015357575173689</stp>
         <tr r="B11" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2678250202</v>
+        <v>#N/A Requesting Data...4209584352</v>
         <stp/>
         <stp>BDP|1349388107151072142</stp>
         <tr r="B63" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3739585788</v>
+        <v>#N/A Requesting Data...4129133949</v>
         <stp/>
         <stp>BDP|8709333921812988959</stp>
         <tr r="B60" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3943959993</v>
+        <v>#N/A Requesting Data...4088323881</v>
         <stp/>
         <stp>BDP|4831885687416893013</stp>
         <tr r="B61" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3548479821</v>
+        <v>#N/A Requesting Data...4099643799</v>
         <stp/>
         <stp>BDP|4686491771336086307</stp>
         <tr r="B46" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3000567831</v>
+        <v>#N/A Requesting Data...4132469200</v>
         <stp/>
         <stp>BDP|4019321265721077281</stp>
         <tr r="B80" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3996956179</v>
+        <v>#N/A Requesting Data...4080835551</v>
+        <stp/>
+        <stp>BDP|8181598594831911792</stp>
+        <tr r="B116" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4150891437</v>
         <stp/>
         <stp>BDP|6840447571764329322</stp>
         <tr r="B63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3047346259</v>
+        <v>#N/A Requesting Data...4094728673</v>
         <stp/>
         <stp>BDP|6223581689631643882</stp>
         <tr r="B43" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4152100509</v>
+        <v>#N/A Requesting Data...4208866751</v>
         <stp/>
         <stp>BDP|7072554400450057079</stp>
         <tr r="B39" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4038363121</v>
+        <v>#N/A Requesting Data...4153592179</v>
         <stp/>
         <stp>BDP|9705036985691504279</stp>
         <tr r="B33" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190228316</v>
+        <v>#N/A Requesting Data...4196293999</v>
         <stp/>
         <stp>BDP|1488139460896040243</stp>
         <tr r="B71" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3480999969</v>
+        <v>#N/A Requesting Data...4085408851</v>
         <stp/>
         <stp>BDP|2760629778015903442</stp>
         <tr r="B20" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3671739413</v>
+        <v>#N/A Requesting Data...4091511871</v>
         <stp/>
         <stp>BDP|5729468941056403144</stp>
         <tr r="B114" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2126569488</v>
+        <v>#N/A Requesting Data...4198747352</v>
         <stp/>
         <stp>BDP|3606050042221602467</stp>
         <tr r="B85" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2146022397</v>
+        <v>#N/A Requesting Data...4287060600</v>
         <stp/>
         <stp>BDP|8505628085347459379</stp>
         <tr r="B118" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2208817574</v>
+        <v>#N/A Requesting Data...4271419143</v>
         <stp/>
         <stp>BDP|6830499895818547173</stp>
         <tr r="B107" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4257809094</v>
+        <v>#N/A Requesting Data...4180588240</v>
         <stp/>
         <stp>BDP|3366715872972638321</stp>
         <tr r="B41" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3817976753</v>
+        <v>#N/A Requesting Data...4163107421</v>
         <stp/>
         <stp>BDP|4064152971448291821</stp>
         <tr r="B19" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3828557614</v>
+        <v>#N/A Requesting Data...4222662802</v>
         <stp/>
         <stp>BDP|8150424467790562855</stp>
         <tr r="B68" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3586092597</v>
+        <v>#N/A Requesting Data...4186863740</v>
         <stp/>
         <stp>BDP|6879841567688645290</stp>
         <tr r="B34" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3755034120</v>
+        <v>#N/A Requesting Data...4177920401</v>
         <stp/>
         <stp>BDP|8204534565039260025</stp>
         <tr r="B6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260043855</v>
+        <v>#N/A Requesting Data...4286768594</v>
         <stp/>
         <stp>BDP|4075508856844596262</stp>
         <tr r="B49" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4230693254</v>
+        <v>#N/A Requesting Data...4088758465</v>
         <stp/>
         <stp>BDP|6060259105384837326</stp>
         <tr r="B27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2396183464</v>
+        <v>#N/A Requesting Data...4173631606</v>
         <stp/>
         <stp>BDP|8622490944988042306</stp>
         <tr r="B59" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3971947514</v>
+        <v>#N/A Requesting Data...4265684281</v>
         <stp/>
         <stp>BDP|4507995980352097473</stp>
         <tr r="B36" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3002927416</v>
+        <v>#N/A Requesting Data...4240966609</v>
+        <stp/>
+        <stp>BDP|1481321157782207681</stp>
+        <tr r="B110" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4249047047</v>
         <stp/>
         <stp>BDP|7770075169421689340</stp>
         <tr r="B30" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3202531742</v>
+        <v>#N/A Requesting Data...4085702635</v>
         <stp/>
         <stp>BDP|7868604933798906996</stp>
         <tr r="B38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2974094961</v>
+        <v>#N/A Requesting Data...4236325085</v>
         <stp/>
         <stp>BDP|6981130434693525452</stp>
         <tr r="B65" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3367030555</v>
+        <v>#N/A Requesting Data...4121628502</v>
+        <stp/>
+        <stp>BDP|9816826004112579050</stp>
+        <tr r="B116" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4237488610</v>
         <stp/>
         <stp>BDP|3327585967643083034</stp>
         <tr r="B29" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2393785772</v>
+        <v>#N/A Requesting Data...4237479150</v>
         <stp/>
         <stp>BDP|8677163638141143861</stp>
         <tr r="B56" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3184893182</v>
+        <v>#N/A Requesting Data...4137891162</v>
         <stp/>
         <stp>BDP|9327009969545187979</stp>
         <tr r="B86" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3165745298</v>
+        <v>#N/A Requesting Data...4283625137</v>
         <stp/>
         <stp>BDP|8567855872662389637</stp>
         <tr r="B74" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3663097149</v>
+        <v>#N/A Requesting Data...4200328628</v>
         <stp/>
         <stp>BDP|5536156012815444350</stp>
         <tr r="B98" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3195192999</v>
+        <v>#N/A Requesting Data...4144937780</v>
         <stp/>
         <stp>BDP|7190302193189083719</stp>
         <tr r="B82" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3577115085</v>
+        <v>#N/A Requesting Data...4125546803</v>
         <stp/>
         <stp>BDP|4580013743281554210</stp>
         <tr r="B84" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2722433483</v>
+        <v>#N/A Requesting Data...4195933584</v>
         <stp/>
         <stp>BDP|5453365321305314204</stp>
         <tr r="B21" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4099892593</v>
+        <v>#N/A Requesting Data...4232551055</v>
         <stp/>
         <stp>BDP|7645556402853603261</stp>
         <tr r="B58" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3249242536</v>
+        <v>#N/A Requesting Data...4239400897</v>
         <stp/>
         <stp>BDP|9889274086360088081</stp>
         <tr r="B73" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2854007577</v>
+        <v>#N/A Requesting Data...4245306142</v>
         <stp/>
         <stp>BDP|6627691190352144898</stp>
         <tr r="B5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3718072224</v>
+        <v>#N/A Requesting Data...4170665378</v>
         <stp/>
         <stp>BDP|7651219247406674411</stp>
         <tr r="B24" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4149664179</v>
+        <v>#N/A Requesting Data...4196108715</v>
         <stp/>
         <stp>BDP|9479922253500791667</stp>
         <tr r="B23" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2820356209</v>
+        <v>#N/A Requesting Data...4241098766</v>
         <stp/>
         <stp>BDP|9724881227877876755</stp>
         <tr r="B102" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3261909423</v>
+        <v>#N/A Requesting Data...4130049517</v>
         <stp/>
         <stp>BDP|5616679365381410750</stp>
         <tr r="B101" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3936169362</v>
+        <v>#N/A Requesting Data...4231497701</v>
         <stp/>
         <stp>BDP|4931693014125064516</stp>
         <tr r="B94" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3317837195</v>
+        <v>#N/A Requesting Data...4255760826</v>
         <stp/>
         <stp>BDP|57840944093023099</stp>
         <tr r="B50" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2773694591</v>
+        <v>#N/A Requesting Data...4123790228</v>
         <stp/>
         <stp>BDP|72392893193397851</stp>
         <tr r="B72" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3402388621</v>
+        <v>#N/A Requesting Data...4207470435</v>
         <stp/>
         <stp>BDP|29182919507176404</stp>
         <tr r="B19" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3415048458</v>
+        <v>#N/A Requesting Data...4276512717</v>
         <stp/>
         <stp>BDP|48784346521564795</stp>
         <tr r="B47" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2644987351</v>
+        <v>#N/A Requesting Data...4273028925</v>
         <stp/>
         <stp>BDP|600745353623356484</stp>
         <tr r="B69" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2937364676</v>
+        <v>#N/A Requesting Data...4160943614</v>
         <stp/>
         <stp>BDP|110536162092575427</stp>
         <tr r="B12" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3232472018</v>
+        <v>#N/A Requesting Data...4206219499</v>
         <stp/>
         <stp>BDP|544469160100429776</stp>
         <tr r="B58" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2731189166</v>
+        <v>#N/A Requesting Data...4226618319</v>
         <stp/>
         <stp>BDP|196592649232687679</stp>
         <tr r="B26" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4201661048</v>
+        <v>#N/A Requesting Data...4173311223</v>
         <stp/>
         <stp>BDP|373155678701821261</stp>
         <tr r="B20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3084884178</v>
+        <v>#N/A Requesting Data...4188393555</v>
         <stp/>
         <stp>BDP|890050101513815665</stp>
         <tr r="B108" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3148982064</v>
+        <v>#N/A Requesting Data...4213764228</v>
         <stp/>
         <stp>BDP|685867442968859018</stp>
         <tr r="B30" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3879598296</v>
+        <v>#N/A Requesting Data...4182865000</v>
         <stp/>
         <stp>BDP|626409749430327491</stp>
         <tr r="B95" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626126694</v>
+        <v>#N/A Requesting Data...4225255232</v>
         <stp/>
         <stp>BDP|655638959255948228</stp>
         <tr r="B69" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3927431197</v>
+        <v>#N/A Requesting Data...4200957713</v>
         <stp/>
         <stp>BDP|362100945892324371</stp>
         <tr r="B41" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3604812671</v>
+        <v>#N/A Requesting Data...4161416539</v>
         <stp/>
         <stp>BDP|530643756757043045</stp>
         <tr r="B14" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477370949</v>
+        <v>#N/A Requesting Data...4148377089</v>
         <stp/>
         <stp>BDP|169633800429970889</stp>
         <tr r="B9" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4130237154</v>
+        <v>#N/A Requesting Data...4209243904</v>
         <stp/>
         <stp>BDP|330722723921687216</stp>
         <tr r="B62" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2836900483</v>
+        <v>#N/A Requesting Data...4204090763</v>
         <stp/>
         <stp>BDP|437428034005720321</stp>
         <tr r="B2" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2774624139</v>
+        <v>#N/A Requesting Data...4188935657</v>
         <stp/>
         <stp>BDP|636515773611623361</stp>
         <tr r="B68" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3969426043</v>
+        <v>#N/A Requesting Data...4238097988</v>
         <stp/>
         <stp>BDP|127366156471504775</stp>
         <tr r="B128" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2744526779</v>
+        <v>#N/A Requesting Data...4289630576</v>
         <stp/>
         <stp>BDP|860748971626634511</stp>
         <tr r="B7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3412167253</v>
+        <v>#N/A Requesting Data...4256415948</v>
         <stp/>
         <stp>BDP|211166823533443348</stp>
         <tr r="B66" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2984575039</v>
+        <v>#N/A Requesting Data...4267884711</v>
         <stp/>
         <stp>BDP|454729401584940127</stp>
         <tr r="B99" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4080792638</v>
+        <v>#N/A Requesting Data...4243233668</v>
         <stp/>
         <stp>BDP|996625740384727438</stp>
         <tr r="B18" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269643494</v>
+        <v>#N/A Requesting Data...4191059664</v>
         <stp/>
         <stp>BDP|429325384750824935</stp>
         <tr r="B37" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3265389979</v>
+        <v>#N/A Requesting Data...4223732539</v>
         <stp/>
         <stp>BDP|272549917841226875</stp>
         <tr r="B61" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3949164971</v>
+        <v>#N/A Requesting Data...4190710887</v>
         <stp/>
         <stp>BDP|975496173728517630</stp>
         <tr r="B77" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4109152558</v>
+        <v>#N/A Requesting Data...4263240993</v>
         <stp/>
         <stp>BDP|974769341867335981</stp>
         <tr r="B10" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4052792427</v>
+        <v>#N/A Requesting Data...4281936892</v>
         <stp/>
         <stp>BDP|890739945169057421</stp>
         <tr r="B37" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3512595931</v>
+        <v>#N/A Requesting Data...4255401193</v>
         <stp/>
         <stp>BDP|125037985841001770</stp>
         <tr r="B32" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3592138430</v>
+        <v>#N/A Requesting Data...4256307104</v>
         <stp/>
         <stp>BDP|959707098611573155</stp>
         <tr r="B109" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3311653025</v>
+        <v>#N/A Requesting Data...4206383349</v>
         <stp/>
         <stp>BDP|267960423553350005</stp>
         <tr r="B44" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3576406756</v>
+        <v>#N/A Requesting Data...4256453865</v>
         <stp/>
         <stp>BDP|891348918178805119</stp>
         <tr r="B55" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4127453759</v>
+        <v>#N/A Requesting Data...4219549777</v>
         <stp/>
         <stp>BDP|647278517358896019</stp>
         <tr r="B6" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4186928870</v>
+        <v>#N/A Requesting Data...4270791085</v>
         <stp/>
         <stp>BDP|437542828899863587</stp>
         <tr r="B12" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162901452</v>
+        <v>#N/A Requesting Data...4238176433</v>
         <stp/>
         <stp>BDP|136449130545819950</stp>
         <tr r="B29" s="1"/>
@@ -7303,11 +7541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7317,10 +7555,12 @@
     <col min="3" max="3" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7336,2194 +7576,2595 @@
       <c r="E1" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="8" t="str">
         <f>_xll.BDP(A2, "NAME")</f>
-        <v>GDP US Chained 2012 Dollars Qo</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>GDP US Chained Dollars QoQ SAA</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="G2" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="str">
         <f>_xll.BDP(A3, "NAME")</f>
-        <v>GDP US Chained 2012 Dollars Yo</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>GDP US Chained Dollars YoY SA</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="8" t="str">
         <f>_xll.BDP(A4, "NAME")</f>
         <v>GDP US Personal Consumption Ch</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="8" t="str">
         <f>_xll.BDP(A5, "NAME")</f>
         <v>US Gross Private Domestic Inve</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="8" t="str">
         <f>_xll.BDP(A6, "NAME")</f>
         <v>US GDP Govt Purchases &amp; Invest</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="8" t="str">
         <f>_xll.BDP(A7, "NAME")</f>
-        <v>BEA Real GDP Chained 2012 Doll</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>BEA Real GDP Chained Dollar Ch</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="8" t="str">
         <f>_xll.BDP(A8, "NAME")</f>
         <v>GDP US Nominal Dollars SAAR</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="8" t="str">
         <f>_xll.BDP(A9, "NAME")</f>
         <v>US GDP Nominal Dollars YoY SA</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="8" t="str">
         <f>_xll.BDP(A10, "NAME")</f>
         <v>US GDP Price Index QoQ SAAR</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="8" t="str">
         <f>_xll.BDP(A11, "NAME")</f>
         <v>US GDP Personal Consumption Co</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="10" t="str">
         <f>_xll.BDP(A12, "NAME")</f>
         <v>US CPI Urban Consumers YoY NSA</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="10" t="str">
         <f>_xll.BDP(A13, "NAME")</f>
         <v>US CPI Urban Consumers Less Fo</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="10" t="str">
         <f>_xll.BDP(A14, "NAME")</f>
         <v>US Personal Consumption Expend</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="10" t="str">
         <f>_xll.BDP(A15, "NAME")</f>
         <v>US Personal Consumption Expend</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="10" t="str">
         <f>_xll.BDP(A16, "NAME")</f>
         <v>US CPI Urban Consumers MoM SA</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="10" t="str">
         <f>_xll.BDP(A17, "NAME")</f>
         <v>US CPI Urban Consumers Less Fo</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="12" t="str">
         <f>_xll.BDP(A18, "NAME")</f>
         <v>US PPI Final Demand MoM SA</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="12" t="str">
         <f>_xll.BDP(A19, "NAME")</f>
         <v>US PPI Final Demand Less Foods</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="12" t="str">
         <f>_xll.BDP(A20, "NAME")</f>
         <v>US PPI Final Demand YoY NSA</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="12" t="str">
         <f>_xll.BDP(A21, "NAME")</f>
         <v>US PPI Final Demand Less Foods</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="14" t="str">
         <f>_xll.BDP(A22, "NAME")</f>
         <v>U-3 US Unemployment Rate Total</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="str">
+      <c r="B23" s="14" t="str">
         <f>_xll.BDP(A23, "NAME")</f>
         <v>US U-6 Unemployed &amp; Part Time</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B24" s="14" t="str">
         <f>_xll.BDP(A24, "NAME")</f>
         <v>US Employees on Nonfarm Payrol</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="14" t="str">
         <f>_xll.BDP(A25, "NAME")</f>
         <v>US Employees on Nonfarm Payrol</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" s="14" t="str">
         <f>_xll.BDP(A26, "NAME")</f>
         <v>US Employees on Nonfarm Payrol</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" s="14" t="str">
         <f>_xll.BDP(A27, "NAME")</f>
         <v>US Average Weekly Hours All Em</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" s="14" t="str">
         <f>_xll.BDP(A28, "NAME")</f>
         <v>US Avg Weekly Hours Nonfarm To</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="14" t="str">
         <f>_xll.BDP(A29, "NAME")</f>
         <v>US Employment Total in Labor F</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="14" t="str">
         <f>_xll.BDP(A30, "NAME")</f>
         <v>US Employment Total in Labor F</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="str">
+      <c r="B31" s="14" t="str">
         <f>_xll.BDP(A31, "NAME")</f>
         <v>US Employment Population Ratio</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" s="14" t="str">
         <f>_xll.BDP(A32, "NAME")</f>
         <v>Bureau of Labor Statistics Emp</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="str">
+      <c r="B33" s="14" t="str">
         <f>_xll.BDP(A33, "NAME")</f>
         <v>US Job Openings Rate SA</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="str">
+      <c r="B34" s="14" t="str">
         <f>_xll.BDP(A34, "NAME")</f>
         <v>US Hires Rate SA</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="str">
+      <c r="B35" s="14" t="str">
         <f>_xll.BDP(A35, "NAME")</f>
         <v>US Separations Rate SA</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="str">
+      <c r="B36" s="14" t="str">
         <f>_xll.BDP(A36, "NAME")</f>
         <v>Challenger US Job Cut Announce</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" s="14" t="str">
         <f>_xll.BDP(A37, "NAME")</f>
         <v>ADP National Employment Report</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" s="14" t="str">
         <f>_xll.BDP(A38, "NAME")</f>
         <v>US Avg Hourly Earnings Private</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="str">
+      <c r="B39" s="14" t="str">
         <f>_xll.BDP(A39, "NAME")</f>
         <v>US Avg Hourly Earnings Private</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="str">
+      <c r="B40" s="14" t="str">
         <f>_xll.BDP(A40, "NAME")</f>
         <v>Bureau of Labor Statistics Emp</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="str">
+      <c r="B41" s="14" t="str">
         <f>_xll.BDP(A41, "NAME")</f>
         <v>US Unit Labor Costs Nonfarm Bu</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" s="14" t="str">
         <f>_xll.BDP(A42, "NAME")</f>
         <v>US Labor Productivity Output P</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="16" t="str">
         <f>_xll.BDP(A43, "NAME")</f>
         <v>US Industrial Production YOY S</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="16" t="str">
         <f>_xll.BDP(A44, "NAME")</f>
         <v>US Industrial Production MOM S</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="str">
+      <c r="B45" s="16" t="str">
         <f>_xll.BDP(A45, "NAME")</f>
         <v>US Capacity Utilization % of T</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="16" t="str">
         <f>_xll.BDP(A46, "NAME")</f>
         <v>US Manufacturers New Orders To</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B47" s="16" t="str">
         <f>_xll.BDP(A47, "NAME")</f>
         <v>US Durable Goods New Orders To</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="B48" s="16" t="str">
         <f>_xll.BDP(A48, "NAME")</f>
         <v>US Durable Goods New Orders In</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="str">
+      <c r="B49" s="16" t="str">
         <f>_xll.BDP(A49, "NAME")</f>
         <v>US Manufacturing &amp; Trade Inven</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" s="16" t="str">
         <f>_xll.BDP(A50, "NAME")</f>
         <v>Merchant Wholesalers Inventori</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="str">
+      <c r="B51" s="16" t="str">
         <f>_xll.BDP(A51, "NAME")</f>
         <v>Inventory/Sales Ratio : Total</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="str">
+      <c r="B52" s="16" t="str">
         <f>_xll.BDP(A52, "NAME")</f>
         <v>Inventory/Sales Ratio : Manufa</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="str">
+      <c r="B53" s="16" t="str">
         <f>_xll.BDP(A53, "NAME")</f>
         <v>Inventory/Sales Ratio : Total</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="str">
+      <c r="B54" s="16" t="str">
         <f>_xll.BDP(A54, "NAME")</f>
         <v>Inventory/Sales Ratio : Total</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="str">
+      <c r="B55" s="16" t="str">
         <f>_xll.BDP(A55, "NAME")</f>
         <v>Inventory/Sales Ratio : Retail</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B56" s="18" t="str">
         <f>_xll.BDP(A56, "NAME")</f>
         <v>US Industrial Production SA</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="str">
+      <c r="B57" s="18" t="str">
         <f>_xll.BDP(A57, "NAME")</f>
         <v>US Manufacturing &amp; Trade Sales</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="str">
+      <c r="B58" s="18" t="str">
         <f>_xll.BDP(A58, "NAME")</f>
         <v>US Aggregate Weekly Hours All</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="str">
+      <c r="B59" s="18" t="str">
         <f>_xll.BDP(A59, "NAME")</f>
         <v>US Employees on Nonfarm Payrol</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="str">
+      <c r="B60" s="18" t="str">
         <f>_xll.BDP(A60, "NAME")</f>
         <v>U.S. Personal Income Excl Tran</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="18"/>
+      <c r="E60" s="18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="str">
+      <c r="B61" s="10" t="str">
         <f>_xll.BDP(A61, "NAME")</f>
         <v>ISM Manufacturing PMI SA</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="str">
+      <c r="B62" s="10" t="str">
         <f>_xll.BDP(A62, "NAME")</f>
         <v>ISM Services PMI</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="str">
+      <c r="B63" s="10" t="str">
         <f>_xll.BDP(A63, "NAME")</f>
         <v>ISM Manufacturing Report on Bu</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="str">
+      <c r="B64" s="10" t="str">
         <f>_xll.BDP(A64, "NAME")</f>
         <v>US Composite PMI SA</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="str">
+      <c r="B65" s="10" t="str">
         <f>_xll.BDP(A65, "NAME")</f>
         <v>US Manufacturing PMI SA</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="str">
+      <c r="B66" s="10" t="str">
         <f>_xll.BDP(A66, "NAME")</f>
         <v>US Services PMI Business Activ</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="str">
+      <c r="B67" s="10" t="str">
         <f>_xll.BDP(A67, "NAME")</f>
         <v>Chicago Fed National Activity</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" s="10" t="str">
         <f>_xll.BDP(A68, "NAME")</f>
         <v>Chicago Fed National Activity</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="str">
+      <c r="B69" s="10" t="str">
         <f>_xll.BDP(A69, "NAME")</f>
         <v>Philadelphia Fed Business Outl</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="str">
+      <c r="B70" s="10" t="str">
         <f>_xll.BDP(A70, "NAME")</f>
         <v>US Empire State Manufacturing</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="str">
+      <c r="B71" s="10" t="str">
         <f>_xll.BDP(A71, "NAME")</f>
         <v>Richmond Manufacturing Survey</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="str">
+      <c r="B72" s="10" t="str">
         <f>_xll.BDP(A72, "NAME")</f>
         <v>Market News International Chic</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="str">
+      <c r="B73" s="10" t="str">
         <f>_xll.BDP(A73, "NAME")</f>
         <v>ISM Milwaukee Purchasers Manuf</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B74" s="20" t="str">
         <f>_xll.BDP(A74, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="str">
+      <c r="B75" s="20" t="str">
         <f>_xll.BDP(A75, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="str">
+      <c r="B76" s="20" t="str">
         <f>_xll.BDP(A76, "NAME")</f>
         <v>Net % of Dom Respond Inc Sprea</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B77" s="20" t="str">
         <f>_xll.BDP(A77, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="str">
+      <c r="B78" s="20" t="str">
         <f>_xll.BDP(A78, "NAME")</f>
         <v>Net % of Dom Respond Reporting</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="str">
+      <c r="B79" s="20" t="str">
         <f>_xll.BDP(A79, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="str">
+      <c r="B80" s="20" t="str">
         <f>_xll.BDP(A80, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="F80" s="20"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="str">
+      <c r="B81" s="20" t="str">
         <f>_xll.BDP(A81, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="str">
+      <c r="B82" s="20" t="str">
         <f>_xll.BDP(A82, "NAME")</f>
         <v>Net % of Domestic Respondents</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="str">
+      <c r="B83" s="20" t="str">
         <f>_xll.BDP(A83, "NAME")</f>
         <v>Net % Domestic Respond Reporti</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="str">
+      <c r="B84" s="10" t="str">
         <f>_xll.BDP(A84, "NAME")</f>
         <v>USA OECD Leading Indicators CL</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="str">
+      <c r="B85" s="10" t="str">
         <f>_xll.BDP(A85, "NAME")</f>
         <v>USA OECD Leading Indicators CL</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="str">
+      <c r="B86" s="10" t="str">
         <f>_xll.BDP(A86, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="str">
+      <c r="B87" s="10" t="str">
         <f>_xll.BDP(A87, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="str">
+      <c r="B88" s="10" t="str">
         <f>_xll.BDP(A88, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="str">
+      <c r="B89" s="22" t="str">
         <f>_xll.BDP(A89, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="F89" s="22"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="str">
+      <c r="B90" s="22" t="str">
         <f>_xll.BDP(A90, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="str">
+      <c r="B91" s="22" t="str">
         <f>_xll.BDP(A91, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="str">
+      <c r="B92" s="22" t="str">
         <f>_xll.BDP(A92, "NAME")</f>
         <v>ISM Manufacturing Report on Bu</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="str">
+      <c r="B93" s="22" t="str">
         <f>_xll.BDP(A93, "NAME")</f>
         <v>Conference Board US Manufactur</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="str">
+      <c r="B94" s="22" t="str">
         <f>_xll.BDP(A94, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="22"/>
+      <c r="E94" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="str">
+      <c r="B95" s="22" t="str">
         <f>_xll.BDP(A95, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="str">
+      <c r="B96" s="22" t="str">
         <f>_xll.BDP(A96, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="22"/>
+      <c r="E96" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="str">
+      <c r="B97" s="22" t="str">
         <f>_xll.BDP(A97, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="D97" s="22"/>
+      <c r="E97" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B98" s="22" t="str">
         <f>_xll.BDP(A98, "NAME")</f>
         <v>Conference Board US Leading In</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="22"/>
+      <c r="E98" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="str">
+      <c r="B99" s="24" t="str">
         <f>_xll.BDP(A99, "NAME")</f>
         <v>US New Privately Owned Housing</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="D99" s="24"/>
+      <c r="E99" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="F99" s="24"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="str">
+      <c r="B100" s="24" t="str">
         <f>_xll.BDP(A100, "NAME")</f>
         <v>Private Housing Authorized by</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="F100" s="24"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="str">
+      <c r="B101" s="24" t="str">
         <f>_xll.BDP(A101, "NAME")</f>
         <v>US New One Family Houses Sold</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="D101" s="24"/>
+      <c r="E101" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="str">
+      <c r="B102" s="24" t="str">
         <f>_xll.BDP(A102, "NAME")</f>
         <v>US NAR Total Existing Homes Sa</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="D102" s="24"/>
+      <c r="E102" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="F102" s="24"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="str">
+      <c r="B103" s="24" t="str">
         <f>_xll.BDP(A103, "NAME")</f>
         <v>US Existing Homes Sales MoM SA</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="D103" s="24"/>
+      <c r="E103" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="F103" s="24"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="str">
+      <c r="B104" s="24" t="str">
         <f>_xll.BDP(A104, "NAME")</f>
         <v>US Pending Home Sales Index Mo</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="D104" s="24"/>
+      <c r="E104" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="F104" s="24"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="str">
+      <c r="B105" s="24" t="str">
         <f>_xll.BDP(A105, "NAME")</f>
         <v>National Association of Home B</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="24"/>
+      <c r="E105" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="F105" s="24"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="str">
+      <c r="B106" s="24" t="str">
         <f>_xll.BDP(A106, "NAME")</f>
         <v>Delinquencies As % Of Total Lo</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="D106" s="24"/>
+      <c r="E106" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="F106" s="24"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="str">
+      <c r="B107" s="24" t="str">
         <f>_xll.BDP(A107, "NAME")</f>
         <v>S&amp;P CoreLogic Case-Shiller 20-</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="D107" s="24"/>
+      <c r="E107" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="F107" s="24"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="str">
+      <c r="B108" s="24" t="str">
         <f>_xll.BDP(A108, "NAME")</f>
         <v>FHFA US House Price Index Purc</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="24"/>
+      <c r="E108" s="24" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="F108" s="24"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="str">
+      <c r="B109" s="10" t="str">
         <f>_xll.BDP(A109, "NAME")</f>
         <v>Adjusted Retail &amp; Food Service</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="D109" s="10"/>
+      <c r="E109" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="str">
+      <c r="B110" s="10" t="str">
         <f>_xll.BDP(A110, "NAME")</f>
         <v>Adjusted Retail Sales Less Aut</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="str">
+      <c r="B111" s="10" t="str">
         <f>_xll.BDP(A111, "NAME")</f>
         <v>Adjusted Retail &amp; Food Service</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="str">
+      <c r="B112" s="10" t="str">
         <f>_xll.BDP(A112, "NAME")</f>
         <v>Adjusted Retail Sales Less Aut</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="str">
+      <c r="B113" s="10" t="str">
         <f>_xll.BDP(A113, "NAME")</f>
         <v>US Auto Sales Total Annualized</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="10"/>
+      <c r="E113" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="str">
+      <c r="B114" s="22" t="str">
         <f>_xll.BDP(A114, "NAME")</f>
         <v>Conference Board Consumer Conf</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="D114" s="22"/>
+      <c r="E114" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="str">
+      <c r="B115" s="22" t="str">
         <f>_xll.BDP(A115, "NAME")</f>
         <v>University of Michigan Consume</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="D115" s="22"/>
+      <c r="E115" s="22" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="str">
+      <c r="B116" s="8" t="str">
         <f>_xll.BDP(A116, "NAME")</f>
         <v>US Personal Income YoY SA</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="str">
+      <c r="B117" s="8" t="str">
         <f>_xll.BDP(A117, "NAME")</f>
         <v>US Personal Income MoM SA</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="str">
+      <c r="B118" s="8" t="str">
         <f>_xll.BDP(A118, "NAME")</f>
         <v>US Personal Consumption Expend</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="str">
+      <c r="B119" s="8" t="str">
         <f>_xll.BDP(A119, "NAME")</f>
         <v>US Personal Consumption Expend</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="str">
+      <c r="B120" s="8" t="str">
         <f>_xll.BDP(A120, "NAME")</f>
         <v>US Personal Saving as a % of D</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="str">
+      <c r="B121" s="8" t="str">
         <f>_xll.BDP(A121, "NAME")</f>
         <v>Federal Reserve Consumer Credi</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="str">
+      <c r="B122" s="26" t="str">
         <f>_xll.BDP(A122, "NAME")</f>
         <v>US Nominal Account Balance In</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="26"/>
+      <c r="E122" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="str">
+      <c r="B123" s="26" t="str">
         <f>_xll.BDP(A123, "NAME")</f>
         <v>US Trade Balance of Goods and</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="D123" s="26"/>
+      <c r="E123" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="F123" s="26"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="str">
+      <c r="B124" s="26" t="str">
         <f>_xll.BDP(A124, "NAME")</f>
         <v>US Trade Balance of Exports SA</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="D124" s="26"/>
+      <c r="E124" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="F124" s="26"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="str">
+      <c r="B125" s="26" t="str">
         <f>_xll.BDP(A125, "NAME")</f>
         <v>US Trade Balance of Imports SA</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="D125" s="26"/>
+      <c r="E125" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="F125" s="26"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="str">
+      <c r="B126" s="26" t="str">
         <f>_xll.BDP(A126, "NAME")</f>
         <v>US Trade Balance of Exports YO</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="D126" s="26"/>
+      <c r="E126" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="F126" s="26"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="str">
+      <c r="B127" s="26" t="str">
         <f>_xll.BDP(A127, "NAME")</f>
         <v>US Trade Balance of Imports Yo</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="D127" s="26"/>
+      <c r="E127" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="F127" s="26"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="str">
+      <c r="B128" s="26" t="str">
         <f>_xll.BDP(A128, "NAME")</f>
         <v>US Import Price Index by End U</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="D128" s="26"/>
+      <c r="E128" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="F128" s="26"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="str">
+      <c r="B129" s="26" t="str">
         <f>_xll.BDP(A129, "NAME")</f>
         <v>US Import Price Index by End U</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="D129" s="26"/>
+      <c r="E129" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="F129" s="26"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="str">
+      <c r="B130" s="26" t="str">
         <f>_xll.BDP(A130, "NAME")</f>
         <v>US Foreign Net Transactions</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="D130" s="26"/>
+      <c r="E130" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="F130" s="26"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="str">
+      <c r="B131" s="26" t="str">
         <f>_xll.BDP(A131, "NAME")</f>
         <v>US Treasury International Capi</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="26"/>
+      <c r="E131" s="26" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="F131" s="26"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="str">
+      <c r="B132" s="12" t="str">
         <f>_xll.BDP(A132, "NAME")</f>
         <v>US Treasury Federal Budget Deb</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="D132" s="12"/>
+      <c r="E132" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="str">
+      <c r="B133" s="12" t="str">
         <f>_xll.BDP(A133, "NAME")</f>
         <v>US Treasury Federal Budget Def</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="D133" s="12"/>
+      <c r="E133" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="str">
+      <c r="B134" s="12" t="str">
         <f>_xll.BDP(A134, "NAME")</f>
         <v>US Total Debt Outstanding</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="D134" s="12"/>
+      <c r="E134" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="str">
+      <c r="B135" s="12" t="str">
         <f>_xll.BDP(A135, "NAME")</f>
         <v>US Total Debt Outstanding Tota</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="12"/>
+      <c r="E135" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="str">
+      <c r="B136" s="12" t="str">
         <f>_xll.BDP(A136, "NAME")</f>
         <v>US Total Debt Outstanding Tota</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="D136" s="12"/>
+      <c r="E136" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="str">
+      <c r="B137" s="12" t="str">
         <f>_xll.BDP(A137, "NAME")</f>
         <v>US Total Debt Outstanding Bill</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="str">
+      <c r="B138" s="12" t="str">
         <f>_xll.BDP(A138, "NAME")</f>
         <v>US Total Debt Outstanding Note</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="D138" s="12"/>
+      <c r="E138" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="str">
+      <c r="B139" s="12" t="str">
         <f>_xll.BDP(A139, "NAME")</f>
         <v>US Total Debt Outstanding Bond</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="str">
+      <c r="B140" s="12" t="str">
         <f>_xll.BDP(A140, "NAME")</f>
         <v>US Total Debt Outstanding TIPS</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="str">
+      <c r="B141" s="10" t="str">
         <f>_xll.BDP(A141, "NAME")</f>
         <v>Monetary Base Total NSA</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="str">
+      <c r="B142" s="28" t="str">
         <f>_xll.BDP(A142, "NAME")</f>
         <v>Monetary Base Total YoY NSA</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="D142" s="28"/>
+      <c r="E142" s="28" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="str">
+      <c r="B143" s="28" t="str">
         <f>_xll.BDP(A143, "NAME")</f>
         <v>Federal Reserve Money Supply M</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="D143" s="28"/>
+      <c r="E143" s="28" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="str">
+      <c r="B144" s="30" t="str">
         <f>_xll.BDP(A144, "NAME")</f>
         <v>Federal Reserve Money Supply M</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="D144" s="30"/>
+      <c r="E144" s="30" t="s">
         <v>777</v>
       </c>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B145" s="28" t="str">
+        <f>_xll.BDP(A145, "NAME")</f>
+        <v>Federal Funds Target Rate - Up</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F145" s="10">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B146" s="28" t="str">
+        <f>_xll.BDP(A146, "NAME")</f>
+        <v>Federal Funds Target Rate - Lo</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B147" s="28" t="str">
+        <f>_xll.BDP(A147, "NAME")</f>
+        <v>Federal Funds Target Rate Mid</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F147" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10308,7 +10949,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
@@ -10320,7 +10961,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>208</v>
       </c>
@@ -10332,7 +10973,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
@@ -10344,7 +10985,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -10356,7 +10997,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>211</v>
       </c>
@@ -10368,7 +11009,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -10380,7 +11021,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>213</v>
       </c>
@@ -10392,15 +11033,28 @@
         <v>774</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="1" t="str">
+      <c r="B72" s="5" t="str">
         <f>_xll.BDP(A72, "NAME")</f>
         <v>ECB M3 Money Supply 3 Month Mo</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>_xll.BDP(A73, "NAME")</f>
+        <v>ECB Deposit Facility Announcem</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -10410,11 +11064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10747,7 +11401,7 @@
       </c>
       <c r="B36" s="1" t="str">
         <f>_xll.BDP(A36, "NAME")</f>
-        <v>S&amp;P Global/CIPS UK Composite P</v>
+        <v>S&amp;P Global UK Composite PMI Ou</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10756,7 +11410,7 @@
       </c>
       <c r="B37" s="1" t="str">
         <f>_xll.BDP(A37, "NAME")</f>
-        <v>S&amp;P Global/CIPS UK Manufacturi</v>
+        <v>S&amp;P Global UK Manufacturing PM</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10765,7 +11419,7 @@
       </c>
       <c r="B38" s="1" t="str">
         <f>_xll.BDP(A38, "NAME")</f>
-        <v>S&amp;P Global/CIPS UK Services PM</v>
+        <v>S&amp;P Global UK Services PMI Bus</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -11459,6 +12113,33 @@
       <c r="B115" s="1" t="str">
         <f>_xll.BDP(A115, "NAME")</f>
         <v>M4 ex intermediate OFCs 3Month</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>_xll.BDP(A116, "NAME")</f>
+        <v>BoE Monetary Policy Committee</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>_xll.BDP(A117, "NAME")</f>
+        <v>BoE Monetary Policy Committee</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>_xll.BDP(A118, "NAME")</f>
+        <v>BoE Monetary Policy Committee</v>
       </c>
     </row>
   </sheetData>
@@ -11468,11 +12149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12708,17 +13389,26 @@
         <v>Japan Official Reserve Assets</v>
       </c>
     </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f>_xll.BDP(A137, "NAME")</f>
+        <v>Bank Of Japan Policy-Rate Bala</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13369,17 +14059,26 @@
         <v>Department of Finance Canada O</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>_xll.BDP(A72, "NAME")</f>
+        <v>Bank of Canada Overnight Lendi</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14372,17 +15071,26 @@
         <v>IMF Australia Total Reserves e</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>_xll.BDP(A110, "NAME")</f>
+        <v>Australia RBA Cash Rate Target</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15429,6 +16137,15 @@
         <v>Brazil Money Supply M4 YoY</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>_xll.BDP(A116, "NAME")</f>
+        <v>Brazil Selic Target Rate</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
